--- a/y_MVPA/y_MVPA.xlsx
+++ b/y_MVPA/y_MVPA.xlsx
@@ -462,7 +462,7 @@
         <v>-0.9219270126732071</v>
       </c>
       <c r="F2">
-        <v>-0.9219270126732071</v>
+        <v>4.797272128956634</v>
       </c>
       <c r="G2">
         <v>-0.5858521376511527</v>
@@ -494,7 +494,7 @@
         <v>-0.9282079791296712</v>
       </c>
       <c r="F3">
-        <v>-0.9282079791296712</v>
+        <v>4.116880983940273</v>
       </c>
       <c r="G3">
         <v>-0.6765625392035108</v>
@@ -526,7 +526,7 @@
         <v>-0.6721281859805411</v>
       </c>
       <c r="F4">
-        <v>-0.6721281859805411</v>
+        <v>3.365866345574384</v>
       </c>
       <c r="G4">
         <v>-0.9774093297085765</v>
@@ -558,7 +558,7 @@
         <v>-0.4528957260540627</v>
       </c>
       <c r="F5">
-        <v>-0.4528957260540627</v>
+        <v>2.279045595529201</v>
       </c>
       <c r="G5">
         <v>-0.1091159436373794</v>
@@ -590,7 +590,7 @@
         <v>-0.9404582599282358</v>
       </c>
       <c r="F6">
-        <v>-0.9404582599282358</v>
+        <v>4.568440419183139</v>
       </c>
       <c r="G6">
         <v>-0.5466647342339652</v>
@@ -622,7 +622,7 @@
         <v>-0.9085323001967782</v>
       </c>
       <c r="F7">
-        <v>-0.9085323001967782</v>
+        <v>4.853574984880439</v>
       </c>
       <c r="G7">
         <v>-0.3276112737441703</v>
@@ -654,7 +654,7 @@
         <v>-0.2592661578155481</v>
       </c>
       <c r="F8">
-        <v>-0.2592661578155481</v>
+        <v>2.271742361109823</v>
       </c>
       <c r="G8">
         <v>-0.406590882314143</v>
@@ -686,7 +686,7 @@
         <v>-0.01661783975330637</v>
       </c>
       <c r="F9">
-        <v>-0.01661783975330637</v>
+        <v>1.971908052078544</v>
       </c>
       <c r="G9">
         <v>-0.5857374871572941</v>
@@ -718,7 +718,7 @@
         <v>-0.7818925438306171</v>
       </c>
       <c r="F10">
-        <v>-0.7818925438306171</v>
+        <v>4.885828027763651</v>
       </c>
       <c r="G10">
         <v>0.7187695052589642</v>
@@ -750,7 +750,7 @@
         <v>-0.6945807792830391</v>
       </c>
       <c r="F11">
-        <v>-0.6945807792830391</v>
+        <v>5.959822755001415</v>
       </c>
       <c r="G11">
         <v>2.721215306168573</v>
@@ -782,7 +782,7 @@
         <v>-0.2076912436025793</v>
       </c>
       <c r="F12">
-        <v>-0.2076912436025793</v>
+        <v>3.162655631737619</v>
       </c>
       <c r="G12">
         <v>1.296993822126573</v>
@@ -814,7 +814,7 @@
         <v>0.3853976376753744</v>
       </c>
       <c r="F13">
-        <v>0.3853976376753744</v>
+        <v>1.837401401704985</v>
       </c>
       <c r="G13">
         <v>1.353531378875819</v>
@@ -846,7 +846,7 @@
         <v>-0.6385043083802469</v>
       </c>
       <c r="F14">
-        <v>-0.6385043083802469</v>
+        <v>3.753783540432139</v>
       </c>
       <c r="G14">
         <v>-0.3897230657685147</v>
@@ -878,7 +878,7 @@
         <v>2.3884379212942</v>
       </c>
       <c r="F15">
-        <v>2.3884379212942</v>
+        <v>2.177647168056254</v>
       </c>
       <c r="G15">
         <v>0.1917494866184038</v>
@@ -910,7 +910,7 @@
         <v>3.652187839457807</v>
       </c>
       <c r="F16">
-        <v>3.652187839457807</v>
+        <v>2.187466638515222</v>
       </c>
       <c r="G16">
         <v>1.198548479593829</v>
@@ -942,7 +942,7 @@
         <v>-0.623962742507033</v>
       </c>
       <c r="F17">
-        <v>-0.623962742507033</v>
+        <v>3.214151083319871</v>
       </c>
       <c r="G17">
         <v>-0.8820857833493408</v>
@@ -974,7 +974,7 @@
         <v>-0.6620739049650047</v>
       </c>
       <c r="F18">
-        <v>-0.6620739049650047</v>
+        <v>1.509966516960217</v>
       </c>
       <c r="G18">
         <v>-1.002502347009259</v>
@@ -1006,7 +1006,7 @@
         <v>0.1575599998911077</v>
       </c>
       <c r="F19">
-        <v>0.1575599998911077</v>
+        <v>-0.1595113044845455</v>
       </c>
       <c r="G19">
         <v>0.6859208500769851</v>
@@ -1038,7 +1038,7 @@
         <v>-0.7036198409224939</v>
       </c>
       <c r="F20">
-        <v>-0.7036198409224939</v>
+        <v>1.658525636473554</v>
       </c>
       <c r="G20">
         <v>-0.8078553423813568</v>
@@ -1070,7 +1070,7 @@
         <v>-0.2515504463908755</v>
       </c>
       <c r="F21">
-        <v>-0.2515504463908755</v>
+        <v>0.3466092516902191</v>
       </c>
       <c r="G21">
         <v>4.214341824807255</v>
@@ -1102,7 +1102,7 @@
         <v>-0.01134608137173507</v>
       </c>
       <c r="F22">
-        <v>-0.01134608137173507</v>
+        <v>0.1719753836246302</v>
       </c>
       <c r="G22">
         <v>0.5785176653209685</v>
@@ -1134,7 +1134,7 @@
         <v>0.5353767615456448</v>
       </c>
       <c r="F23">
-        <v>0.5353767615456448</v>
+        <v>0.09771934629811997</v>
       </c>
       <c r="G23">
         <v>0.05045815419908982</v>
@@ -1166,7 +1166,7 @@
         <v>-0.9244877896457177</v>
       </c>
       <c r="F24">
-        <v>-0.9244877896457177</v>
+        <v>-0.8292362108979618</v>
       </c>
       <c r="G24">
         <v>-0.2347516191984078</v>
@@ -1198,7 +1198,7 @@
         <v>-0.8959052959979175</v>
       </c>
       <c r="F25">
-        <v>-0.8959052959979175</v>
+        <v>-0.3464631646827277</v>
       </c>
       <c r="G25">
         <v>0.6058506559892389</v>
@@ -1230,7 +1230,7 @@
         <v>-0.7656016340289689</v>
       </c>
       <c r="F26">
-        <v>-0.7656016340289689</v>
+        <v>-0.7165508654979398</v>
       </c>
       <c r="G26">
         <v>-0.9558166892357922</v>
@@ -1262,7 +1262,7 @@
         <v>0.8515188016932718</v>
       </c>
       <c r="F27">
-        <v>0.8515188016932718</v>
+        <v>-0.5717507969020792</v>
       </c>
       <c r="G27">
         <v>0.6357961584227299</v>
@@ -1294,7 +1294,7 @@
         <v>-0.7991465465054776</v>
       </c>
       <c r="F28">
-        <v>-0.7991465465054776</v>
+        <v>-0.9255156953460142</v>
       </c>
       <c r="G28">
         <v>0.3905640160329547</v>
@@ -1326,7 +1326,7 @@
         <v>0.6266181726223542</v>
       </c>
       <c r="F29">
-        <v>0.6266181726223542</v>
+        <v>0.5551474953519273</v>
       </c>
       <c r="G29">
         <v>0.3519172320917254</v>
@@ -1358,7 +1358,7 @@
         <v>-0.3272332648892617</v>
       </c>
       <c r="F30">
-        <v>-0.3272332648892617</v>
+        <v>-0.5802387870984529</v>
       </c>
       <c r="G30">
         <v>0.5641113013386126</v>
@@ -1390,7 +1390,7 @@
         <v>-0.8931292099918827</v>
       </c>
       <c r="F31">
-        <v>-0.8931292099918827</v>
+        <v>-0.4046791163401333</v>
       </c>
       <c r="G31">
         <v>-0.4669480455615427</v>
@@ -1422,7 +1422,7 @@
         <v>-0.1047554975077482</v>
       </c>
       <c r="F32">
-        <v>-0.1047554975077482</v>
+        <v>-0.1532288599024574</v>
       </c>
       <c r="G32">
         <v>2.661103182448729</v>
@@ -1454,7 +1454,7 @@
         <v>-0.9011744702129162</v>
       </c>
       <c r="F33">
-        <v>-0.9011744702129162</v>
+        <v>0.5619520603086797</v>
       </c>
       <c r="G33">
         <v>-0.1593797094896589</v>
@@ -1486,7 +1486,7 @@
         <v>-0.9071081658564772</v>
       </c>
       <c r="F34">
-        <v>-0.9071081658564772</v>
+        <v>-1.279364298872783</v>
       </c>
       <c r="G34">
         <v>-0.7750613823990958</v>
@@ -1518,7 +1518,7 @@
         <v>-0.9142769356225818</v>
       </c>
       <c r="F35">
-        <v>-0.9142769356225818</v>
+        <v>0.1762997343738661</v>
       </c>
       <c r="G35">
         <v>-0.9663975698346973</v>
@@ -1550,7 +1550,7 @@
         <v>-0.2427274635000945</v>
       </c>
       <c r="F36">
-        <v>-0.2427274635000945</v>
+        <v>0.1523752077790316</v>
       </c>
       <c r="G36">
         <v>0.4575431288911352</v>
@@ -1582,7 +1582,7 @@
         <v>-0.2896503946172627</v>
       </c>
       <c r="F37">
-        <v>-0.2896503946172627</v>
+        <v>-0.1594984916557265</v>
       </c>
       <c r="G37">
         <v>1.422498955172992</v>
@@ -1614,7 +1614,7 @@
         <v>-0.9440681531248812</v>
       </c>
       <c r="F38">
-        <v>-0.9440681531248812</v>
+        <v>1.055362240317903</v>
       </c>
       <c r="G38">
         <v>-0.9401262995629115</v>
@@ -1646,7 +1646,7 @@
         <v>-0.3596000985623788</v>
       </c>
       <c r="F39">
-        <v>-0.3596000985623788</v>
+        <v>-0.8304581352304002</v>
       </c>
       <c r="G39">
         <v>-0.7163048922383075</v>
@@ -1678,7 +1678,7 @@
         <v>-0.9317937482725642</v>
       </c>
       <c r="F40">
-        <v>-0.9317937482725642</v>
+        <v>-0.4961242954051178</v>
       </c>
       <c r="G40">
         <v>-1.171679117891266</v>
@@ -1710,7 +1710,7 @@
         <v>-0.4893660094656522</v>
       </c>
       <c r="F41">
-        <v>-0.4893660094656522</v>
+        <v>-1.043704719646598</v>
       </c>
       <c r="G41">
         <v>-0.8325225091838295</v>
@@ -1742,7 +1742,7 @@
         <v>-0.7848415131614918</v>
       </c>
       <c r="F42">
-        <v>-0.7848415131614918</v>
+        <v>0.4161915416247111</v>
       </c>
       <c r="G42">
         <v>-0.5930906107226588</v>
@@ -1774,7 +1774,7 @@
         <v>1.733730734676872</v>
       </c>
       <c r="F43">
-        <v>1.733730734676872</v>
+        <v>-0.5459362412166386</v>
       </c>
       <c r="G43">
         <v>0.1061176654594449</v>
@@ -1806,7 +1806,7 @@
         <v>-0.8538354792872704</v>
       </c>
       <c r="F44">
-        <v>-0.8538354792872704</v>
+        <v>0.09425358721026887</v>
       </c>
       <c r="G44">
         <v>-0.9300411596938187</v>
@@ -1838,7 +1838,7 @@
         <v>0.4273945349794849</v>
       </c>
       <c r="F45">
-        <v>0.4273945349794849</v>
+        <v>-0.6859222481572835</v>
       </c>
       <c r="G45">
         <v>0.05800483068664609</v>
@@ -1870,7 +1870,7 @@
         <v>0.3347870339648245</v>
       </c>
       <c r="F46">
-        <v>0.3347870339648245</v>
+        <v>-0.9137189788451178</v>
       </c>
       <c r="G46">
         <v>0.3719469390004158</v>
@@ -1902,7 +1902,7 @@
         <v>-0.7671569962651229</v>
       </c>
       <c r="F47">
-        <v>-0.7671569962651229</v>
+        <v>-0.05548486054452476</v>
       </c>
       <c r="G47">
         <v>-1.043752094263419</v>
@@ -1934,7 +1934,7 @@
         <v>-0.7471673780049864</v>
       </c>
       <c r="F48">
-        <v>-0.7471673780049864</v>
+        <v>-0.9046067951578093</v>
       </c>
       <c r="G48">
         <v>-0.8964701755272567</v>
@@ -1966,7 +1966,7 @@
         <v>0.2446068086817964</v>
       </c>
       <c r="F49">
-        <v>0.2446068086817964</v>
+        <v>-0.9009169174457848</v>
       </c>
       <c r="G49">
         <v>1.173329133419871</v>
@@ -1998,7 +1998,7 @@
         <v>-0.5532138525466426</v>
       </c>
       <c r="F50">
-        <v>-0.5532138525466426</v>
+        <v>-0.4785218651631693</v>
       </c>
       <c r="G50">
         <v>-0.918345002124682</v>
@@ -2030,7 +2030,7 @@
         <v>2.095671738547827</v>
       </c>
       <c r="F51">
-        <v>2.095671738547827</v>
+        <v>-0.5010574576171416</v>
       </c>
       <c r="G51">
         <v>0.4312864438597678</v>
@@ -2062,7 +2062,7 @@
         <v>1.256129201308254</v>
       </c>
       <c r="F52">
-        <v>1.256129201308254</v>
+        <v>-0.6120100676360951</v>
       </c>
       <c r="G52">
         <v>-0.1878178243658689</v>
@@ -2094,7 +2094,7 @@
         <v>-0.3998735741664598</v>
       </c>
       <c r="F53">
-        <v>-0.3998735741664598</v>
+        <v>0.3329568754882589</v>
       </c>
       <c r="G53">
         <v>-0.9114907526609682</v>
@@ -2126,7 +2126,7 @@
         <v>0.07335646559576441</v>
       </c>
       <c r="F54">
-        <v>0.07335646559576441</v>
+        <v>-0.4739885002627226</v>
       </c>
       <c r="G54">
         <v>-0.7033910799435458</v>
@@ -2158,7 +2158,7 @@
         <v>0.2694557082019862</v>
       </c>
       <c r="F55">
-        <v>0.2694557082019862</v>
+        <v>-0.2009705943676232</v>
       </c>
       <c r="G55">
         <v>0.06018097884853995</v>
@@ -2190,7 +2190,7 @@
         <v>7.429099271262618</v>
       </c>
       <c r="F56">
-        <v>7.429099271262618</v>
+        <v>0.9246365934986157</v>
       </c>
       <c r="G56">
         <v>1.279367073675889</v>
@@ -2222,7 +2222,7 @@
         <v>1.708322985121876</v>
       </c>
       <c r="F57">
-        <v>1.708322985121876</v>
+        <v>0.3342204906013842</v>
       </c>
       <c r="G57">
         <v>0.1704896648639827</v>
@@ -2254,7 +2254,7 @@
         <v>0.9181858141952293</v>
       </c>
       <c r="F58">
-        <v>0.9181858141952293</v>
+        <v>-0.6747729999454387</v>
       </c>
       <c r="G58">
         <v>-0.08726843116073452</v>
@@ -2286,7 +2286,7 @@
         <v>-0.7418730983119534</v>
       </c>
       <c r="F59">
-        <v>-0.7418730983119534</v>
+        <v>1.054957850344525</v>
       </c>
       <c r="G59">
         <v>-0.7311515348521813</v>
@@ -2318,7 +2318,7 @@
         <v>-0.6105469767740309</v>
       </c>
       <c r="F60">
-        <v>-0.6105469767740309</v>
+        <v>1.254099002332309</v>
       </c>
       <c r="G60">
         <v>0.002420660169844725</v>
@@ -2350,7 +2350,7 @@
         <v>1.929201536121202</v>
       </c>
       <c r="F61">
-        <v>1.929201536121202</v>
+        <v>-0.338630543161357</v>
       </c>
       <c r="G61">
         <v>0.4372455927321185</v>
@@ -2382,7 +2382,7 @@
         <v>1.667945716018131</v>
       </c>
       <c r="F62">
-        <v>1.667945716018131</v>
+        <v>0.7711052520210442</v>
       </c>
       <c r="G62">
         <v>0.3332322481888769</v>
@@ -2414,7 +2414,7 @@
         <v>1.849313613992135</v>
       </c>
       <c r="F63">
-        <v>1.849313613992135</v>
+        <v>-0.4178003936469989</v>
       </c>
       <c r="G63">
         <v>0.2757753973654717</v>
@@ -2446,7 +2446,7 @@
         <v>0.3221423196172827</v>
       </c>
       <c r="F64">
-        <v>0.3221423196172827</v>
+        <v>-0.3130084249715386</v>
       </c>
       <c r="G64">
         <v>-0.5448517008260657</v>
@@ -2478,7 +2478,7 @@
         <v>-0.02737387549589498</v>
       </c>
       <c r="F65">
-        <v>-0.02737387549589498</v>
+        <v>-0.772806607972535</v>
       </c>
       <c r="G65">
         <v>-0.2637738256694672</v>
@@ -2510,7 +2510,7 @@
         <v>0.4361355047446322</v>
       </c>
       <c r="F66">
-        <v>0.4361355047446322</v>
+        <v>-0.8199719565768611</v>
       </c>
       <c r="G66">
         <v>-0.3048109359993785</v>
@@ -2542,7 +2542,7 @@
         <v>-0.6603683971515916</v>
       </c>
       <c r="F67">
-        <v>-0.6603683971515916</v>
+        <v>-0.2263403877199284</v>
       </c>
       <c r="G67">
         <v>-0.1388098158031189</v>
@@ -2574,7 +2574,7 @@
         <v>0.5065390639048479</v>
       </c>
       <c r="F68">
-        <v>0.5065390639048479</v>
+        <v>-0.662320887009514</v>
       </c>
       <c r="G68">
         <v>-0.3361693411171243</v>
@@ -2606,7 +2606,7 @@
         <v>-0.8058377780528339</v>
       </c>
       <c r="F69">
-        <v>-0.8058377780528339</v>
+        <v>0.3711828515181482</v>
       </c>
       <c r="G69">
         <v>-0.396926679361508</v>
@@ -2638,7 +2638,7 @@
         <v>0.3825693313546925</v>
       </c>
       <c r="F70">
-        <v>0.3825693313546925</v>
+        <v>-0.7716488794640508</v>
       </c>
       <c r="G70">
         <v>1.957516719484005</v>
@@ -2670,7 +2670,7 @@
         <v>0.1062584029497426</v>
       </c>
       <c r="F71">
-        <v>0.1062584029497426</v>
+        <v>-0.9147377874458167</v>
       </c>
       <c r="G71">
         <v>4.343612825456252</v>
@@ -2702,7 +2702,7 @@
         <v>-0.6914376686266044</v>
       </c>
       <c r="F72">
-        <v>-0.6914376686266044</v>
+        <v>-1.086109343788449</v>
       </c>
       <c r="G72">
         <v>-0.6568791123010813</v>
@@ -2734,7 +2734,7 @@
         <v>-0.3707063387842566</v>
       </c>
       <c r="F73">
-        <v>-0.3707063387842566</v>
+        <v>-0.670433488887736</v>
       </c>
       <c r="G73">
         <v>-0.5141332508974069</v>
@@ -2766,7 +2766,7 @@
         <v>-0.9150981888448025</v>
       </c>
       <c r="F74">
-        <v>-0.9150981888448025</v>
+        <v>0.1278266083322024</v>
       </c>
       <c r="G74">
         <v>-0.5184340852402408</v>
@@ -2798,7 +2798,7 @@
         <v>0.163771990453272</v>
       </c>
       <c r="F75">
-        <v>0.163771990453272</v>
+        <v>1.189562327587021</v>
       </c>
       <c r="G75">
         <v>0.2101850713768372</v>
@@ -2830,7 +2830,7 @@
         <v>-0.9356698689992718</v>
       </c>
       <c r="F76">
-        <v>-0.9356698689992718</v>
+        <v>0.7926188733044542</v>
       </c>
       <c r="G76">
         <v>-0.9736370578198132</v>
@@ -2862,7 +2862,7 @@
         <v>-0.04900663168742171</v>
       </c>
       <c r="F77">
-        <v>-0.04900663168742171</v>
+        <v>1.053768566393708</v>
       </c>
       <c r="G77">
         <v>0.6782603263404502</v>
@@ -2894,7 +2894,7 @@
         <v>-0.9050676765393747</v>
       </c>
       <c r="F78">
-        <v>-0.9050676765393747</v>
+        <v>0.02360301377607643</v>
       </c>
       <c r="G78">
         <v>-1.055185465273475</v>
@@ -2926,7 +2926,7 @@
         <v>-0.07520582568410947</v>
       </c>
       <c r="F79">
-        <v>-0.07520582568410947</v>
+        <v>-0.9668245903814856</v>
       </c>
       <c r="G79">
         <v>-0.4301565146754024</v>
@@ -2958,7 +2958,7 @@
         <v>-0.4634001478757144</v>
       </c>
       <c r="F80">
-        <v>-0.4634001478757144</v>
+        <v>0.1522921532992524</v>
       </c>
       <c r="G80">
         <v>-0.9390721355714101</v>
@@ -2990,7 +2990,7 @@
         <v>-0.8778039212074948</v>
       </c>
       <c r="F81">
-        <v>-0.8778039212074948</v>
+        <v>-1.137171915680221</v>
       </c>
       <c r="G81">
         <v>-0.7905143257173595</v>
@@ -3022,7 +3022,7 @@
         <v>0.09721070736664272</v>
       </c>
       <c r="F82">
-        <v>0.09721070736664272</v>
+        <v>-0.6952354446192418</v>
       </c>
       <c r="G82">
         <v>0.0360972401311306</v>
@@ -3054,7 +3054,7 @@
         <v>-0.7048735824346982</v>
       </c>
       <c r="F83">
-        <v>-0.7048735824346982</v>
+        <v>-0.5417014634156544</v>
       </c>
       <c r="G83">
         <v>-0.9427358408821819</v>
@@ -3086,7 +3086,7 @@
         <v>0.04583666701375268</v>
       </c>
       <c r="F84">
-        <v>0.04583666701375268</v>
+        <v>-0.2534712556533842</v>
       </c>
       <c r="G84">
         <v>2.315740349695383</v>
@@ -3118,7 +3118,7 @@
         <v>-0.4725794405748858</v>
       </c>
       <c r="F85">
-        <v>-0.4725794405748858</v>
+        <v>-0.5934526466123852</v>
       </c>
       <c r="G85">
         <v>-0.9537056604103989</v>
@@ -3150,7 +3150,7 @@
         <v>-0.1193410307464997</v>
       </c>
       <c r="F86">
-        <v>-0.1193410307464997</v>
+        <v>-0.6258941844367589</v>
       </c>
       <c r="G86">
         <v>0.07372507779393814</v>
@@ -3182,7 +3182,7 @@
         <v>-0.7747428173757031</v>
       </c>
       <c r="F87">
-        <v>-0.7747428173757031</v>
+        <v>-0.5326750105719661</v>
       </c>
       <c r="G87">
         <v>-0.7041008146387215</v>
@@ -3214,7 +3214,7 @@
         <v>0.305254298917235</v>
       </c>
       <c r="F88">
-        <v>0.305254298917235</v>
+        <v>-0.876649107497444</v>
       </c>
       <c r="G88">
         <v>1.026471527168255</v>
@@ -3246,7 +3246,7 @@
         <v>-0.8683617755598525</v>
       </c>
       <c r="F89">
-        <v>-0.8683617755598525</v>
+        <v>0.5275531706012139</v>
       </c>
       <c r="G89">
         <v>-0.579617855692354</v>
@@ -3278,7 +3278,7 @@
         <v>-0.1441738613007938</v>
       </c>
       <c r="F90">
-        <v>-0.1441738613007938</v>
+        <v>-0.2092179603066379</v>
       </c>
       <c r="G90">
         <v>-0.5354808369161949</v>
@@ -3310,7 +3310,7 @@
         <v>-0.8290417271748867</v>
       </c>
       <c r="F91">
-        <v>-0.8290417271748867</v>
+        <v>0.7280162306902385</v>
       </c>
       <c r="G91">
         <v>-0.6346677752633911</v>
@@ -3342,7 +3342,7 @@
         <v>-0.8105025736081898</v>
       </c>
       <c r="F92">
-        <v>-0.8105025736081898</v>
+        <v>0.3552021076343392</v>
       </c>
       <c r="G92">
         <v>-0.1791840167773397</v>
@@ -3374,7 +3374,7 @@
         <v>-0.1083244554154155</v>
       </c>
       <c r="F93">
-        <v>-0.1083244554154155</v>
+        <v>0.01916735321289766</v>
       </c>
       <c r="G93">
         <v>0.3213627152089379</v>
@@ -3406,7 +3406,7 @@
         <v>0.09129463597106764</v>
       </c>
       <c r="F94">
-        <v>0.09129463597106764</v>
+        <v>-0.1125909149826526</v>
       </c>
       <c r="G94">
         <v>0.2520510056986698</v>
@@ -3438,7 +3438,7 @@
         <v>-0.6500957159041784</v>
       </c>
       <c r="F95">
-        <v>-0.6500957159041784</v>
+        <v>0.5564801899353544</v>
       </c>
       <c r="G95">
         <v>-0.2717661059858585</v>
@@ -3470,7 +3470,7 @@
         <v>-0.580874226612518</v>
       </c>
       <c r="F96">
-        <v>-0.580874226612518</v>
+        <v>-0.3857429375351052</v>
       </c>
       <c r="G96">
         <v>-0.5064820542464613</v>
@@ -3502,7 +3502,7 @@
         <v>0.2091810898974759</v>
       </c>
       <c r="F97">
-        <v>0.2091810898974759</v>
+        <v>-0.2408652312695417</v>
       </c>
       <c r="G97">
         <v>-0.6175527078844592</v>
@@ -3534,7 +3534,7 @@
         <v>0.7076199865133063</v>
       </c>
       <c r="F98">
-        <v>0.7076199865133063</v>
+        <v>-0.4161259329126004</v>
       </c>
       <c r="G98">
         <v>0.4026590158450505</v>
@@ -3566,7 +3566,7 @@
         <v>-0.7416804113865996</v>
       </c>
       <c r="F99">
-        <v>-0.7416804113865996</v>
+        <v>1.600505174382314</v>
       </c>
       <c r="G99">
         <v>-0.967607041244845</v>
@@ -3598,7 +3598,7 @@
         <v>0.4755521689219844</v>
       </c>
       <c r="F100">
-        <v>0.4755521689219844</v>
+        <v>-0.2612134369510469</v>
       </c>
       <c r="G100">
         <v>2.606186721107968</v>
@@ -3630,7 +3630,7 @@
         <v>-0.6946037410041119</v>
       </c>
       <c r="F101">
-        <v>-0.6946037410041119</v>
+        <v>2.256736672196765</v>
       </c>
       <c r="G101">
         <v>-0.6768919993041478</v>
@@ -3662,7 +3662,7 @@
         <v>-0.2909908672073442</v>
       </c>
       <c r="F102">
-        <v>-0.2909908672073442</v>
+        <v>0.1895585277694593</v>
       </c>
       <c r="G102">
         <v>3.436717456606214</v>
@@ -3694,7 +3694,7 @@
         <v>-0.9171136386048125</v>
       </c>
       <c r="F103">
-        <v>-0.9171136386048125</v>
+        <v>1.955798266259227</v>
       </c>
       <c r="G103">
         <v>-0.7446255690025219</v>
@@ -3726,7 +3726,7 @@
         <v>-0.3245600366986626</v>
       </c>
       <c r="F104">
-        <v>-0.3245600366986626</v>
+        <v>-0.4575543248062762</v>
       </c>
       <c r="G104">
         <v>-0.5722425602070543</v>
@@ -3758,7 +3758,7 @@
         <v>-0.9008392856677121</v>
       </c>
       <c r="F105">
-        <v>-0.9008392856677121</v>
+        <v>1.265414961391528</v>
       </c>
       <c r="G105">
         <v>-0.5886789732813644</v>
@@ -3790,7 +3790,7 @@
         <v>-0.7949556850822959</v>
       </c>
       <c r="F106">
-        <v>-0.7949556850822959</v>
+        <v>1.482372669042014</v>
       </c>
       <c r="G106">
         <v>-0.7370912616428178</v>
@@ -3822,7 +3822,7 @@
         <v>0.3473210409601565</v>
       </c>
       <c r="F107">
-        <v>0.3473210409601565</v>
+        <v>-0.6457723466492289</v>
       </c>
       <c r="G107">
         <v>-0.7292801721201699</v>
@@ -3854,7 +3854,7 @@
         <v>-0.8533666309593204</v>
       </c>
       <c r="F108">
-        <v>-0.8533666309593204</v>
+        <v>1.891388276280829</v>
       </c>
       <c r="G108">
         <v>0.1888271162045362</v>
@@ -3886,7 +3886,7 @@
         <v>0.3176167090842505</v>
       </c>
       <c r="F109">
-        <v>0.3176167090842505</v>
+        <v>-0.5375860531814592</v>
       </c>
       <c r="G109">
         <v>0.9285247012615697</v>
@@ -3918,7 +3918,7 @@
         <v>1.553534685152429</v>
       </c>
       <c r="F110">
-        <v>1.553534685152429</v>
+        <v>-0.009815058321938712</v>
       </c>
       <c r="G110">
         <v>2.130160087563238</v>
@@ -3950,7 +3950,7 @@
         <v>-0.49623240243088</v>
       </c>
       <c r="F111">
-        <v>-0.49623240243088</v>
+        <v>-0.6748657376717372</v>
       </c>
       <c r="G111">
         <v>-0.8710010410251429</v>
@@ -3982,7 +3982,7 @@
         <v>0.5283982142038695</v>
       </c>
       <c r="F112">
-        <v>0.5283982142038695</v>
+        <v>-0.5183182751994274</v>
       </c>
       <c r="G112">
         <v>0.2229328360466862</v>
@@ -4014,7 +4014,7 @@
         <v>-0.6062870471015709</v>
       </c>
       <c r="F113">
-        <v>-0.6062870471015709</v>
+        <v>1.641945573207848</v>
       </c>
       <c r="G113">
         <v>-0.9293373335077536</v>
@@ -4046,7 +4046,7 @@
         <v>-0.1684173157582585</v>
       </c>
       <c r="F114">
-        <v>-0.1684173157582585</v>
+        <v>0.3213589788552308</v>
       </c>
       <c r="G114">
         <v>-0.4983910184085178</v>
@@ -4078,7 +4078,7 @@
         <v>-0.9109076522539307</v>
       </c>
       <c r="F115">
-        <v>-0.9109076522539307</v>
+        <v>0.8785534740211012</v>
       </c>
       <c r="G115">
         <v>-0.6808040196106532</v>
@@ -4110,7 +4110,7 @@
         <v>0.406805404927962</v>
       </c>
       <c r="F116">
-        <v>0.406805404927962</v>
+        <v>1.425499598229812</v>
       </c>
       <c r="G116">
         <v>0.7975797764840483</v>
@@ -4142,7 +4142,7 @@
         <v>-0.8639802421010663</v>
       </c>
       <c r="F117">
-        <v>-0.8639802421010663</v>
+        <v>1.149450304317646</v>
       </c>
       <c r="G117">
         <v>-0.7412538409709106</v>
@@ -4174,7 +4174,7 @@
         <v>0.05435182423994655</v>
       </c>
       <c r="F118">
-        <v>0.05435182423994655</v>
+        <v>0.1684454661618193</v>
       </c>
       <c r="G118">
         <v>2.51765323832661</v>
@@ -4206,7 +4206,7 @@
         <v>0.6773429223625062</v>
       </c>
       <c r="F119">
-        <v>0.6773429223625062</v>
+        <v>-0.3733920330086971</v>
       </c>
       <c r="G119">
         <v>2.19090346536944</v>
@@ -4238,7 +4238,7 @@
         <v>-0.6542544549628927</v>
       </c>
       <c r="F120">
-        <v>-0.6542544549628927</v>
+        <v>1.10748236560347</v>
       </c>
       <c r="G120">
         <v>-0.9148213175337743</v>
@@ -4270,7 +4270,7 @@
         <v>-0.7518898487832996</v>
       </c>
       <c r="F121">
-        <v>-0.7518898487832996</v>
+        <v>2.195059120453045</v>
       </c>
       <c r="G121">
         <v>-0.8850851166819346</v>
@@ -4302,7 +4302,7 @@
         <v>0.09252844129314185</v>
       </c>
       <c r="F122">
-        <v>0.09252844129314185</v>
+        <v>-0.08466498501623171</v>
       </c>
       <c r="G122">
         <v>-0.2455404344712195</v>
@@ -4334,7 +4334,7 @@
         <v>0.3085014114982007</v>
       </c>
       <c r="F123">
-        <v>0.3085014114982007</v>
+        <v>0.1874059746909795</v>
       </c>
       <c r="G123">
         <v>0.8537316857948914</v>
@@ -4366,7 +4366,7 @@
         <v>-0.6793608355394952</v>
       </c>
       <c r="F124">
-        <v>-0.6793608355394952</v>
+        <v>0.2553444932296389</v>
       </c>
       <c r="G124">
         <v>0.1852872711699439</v>
@@ -4398,7 +4398,7 @@
         <v>-0.765459841740962</v>
       </c>
       <c r="F125">
-        <v>-0.765459841740962</v>
+        <v>0.2248083534551768</v>
       </c>
       <c r="G125">
         <v>0.08715908521885946</v>
@@ -4430,7 +4430,7 @@
         <v>1.155317971040695</v>
       </c>
       <c r="F126">
-        <v>1.155317971040695</v>
+        <v>-0.4638209731680256</v>
       </c>
       <c r="G126">
         <v>0.1836050973580963</v>
@@ -4462,7 +4462,7 @@
         <v>-0.5825685271772348</v>
       </c>
       <c r="F127">
-        <v>-0.5825685271772348</v>
+        <v>-0.2196117749126578</v>
       </c>
       <c r="G127">
         <v>-0.01289595743933376</v>
@@ -4494,7 +4494,7 @@
         <v>0.2333448997189978</v>
       </c>
       <c r="F128">
-        <v>0.2333448997189978</v>
+        <v>-0.502098628405135</v>
       </c>
       <c r="G128">
         <v>-0.5023572654606395</v>
@@ -4526,7 +4526,7 @@
         <v>-0.7459699308225893</v>
       </c>
       <c r="F129">
-        <v>-0.7459699308225893</v>
+        <v>-0.08465869245848312</v>
       </c>
       <c r="G129">
         <v>-0.7957911544525492</v>
@@ -4558,7 +4558,7 @@
         <v>0.3653561373220319</v>
       </c>
       <c r="F130">
-        <v>0.3653561373220319</v>
+        <v>-0.7096371745759633</v>
       </c>
       <c r="G130">
         <v>0.5697881043649778</v>
@@ -4590,7 +4590,7 @@
         <v>-0.8893896771049909</v>
       </c>
       <c r="F131">
-        <v>-0.8893896771049909</v>
+        <v>-0.797110922488967</v>
       </c>
       <c r="G131">
         <v>-1.143468903531621</v>
@@ -4622,7 +4622,7 @@
         <v>-0.9208579276959032</v>
       </c>
       <c r="F132">
-        <v>-0.9208579276959032</v>
+        <v>-1.26321885210172</v>
       </c>
       <c r="G132">
         <v>-1.086049354725804</v>
@@ -4654,7 +4654,7 @@
         <v>0.2745457583809916</v>
       </c>
       <c r="F133">
-        <v>0.2745457583809916</v>
+        <v>-0.124516512266704</v>
       </c>
       <c r="G133">
         <v>-0.5594589786582592</v>
@@ -4686,7 +4686,7 @@
         <v>-0.82574858285876</v>
       </c>
       <c r="F134">
-        <v>-0.82574858285876</v>
+        <v>-1.142724620181975</v>
       </c>
       <c r="G134">
         <v>-0.8418040364932931</v>
@@ -4718,7 +4718,7 @@
         <v>-0.161710102697415</v>
       </c>
       <c r="F135">
-        <v>-0.161710102697415</v>
+        <v>-0.8633995754050019</v>
       </c>
       <c r="G135">
         <v>-0.6377763210587575</v>
@@ -4750,7 +4750,7 @@
         <v>-0.7623938430714012</v>
       </c>
       <c r="F136">
-        <v>-0.7623938430714012</v>
+        <v>-1.107033467646477</v>
       </c>
       <c r="G136">
         <v>-0.8692672583291823</v>
@@ -4782,7 +4782,7 @@
         <v>-0.04110234722203299</v>
       </c>
       <c r="F137">
-        <v>-0.04110234722203299</v>
+        <v>-1.055542098951021</v>
       </c>
       <c r="G137">
         <v>0.1333545317918347</v>
@@ -4814,7 +4814,7 @@
         <v>-0.4521800465939256</v>
       </c>
       <c r="F138">
-        <v>-0.4521800465939256</v>
+        <v>0.1362428157455774</v>
       </c>
       <c r="G138">
         <v>-0.6570346168836679</v>
@@ -4846,7 +4846,7 @@
         <v>0.368940781352001</v>
       </c>
       <c r="F139">
-        <v>0.368940781352001</v>
+        <v>-0.7128869828862235</v>
       </c>
       <c r="G139">
         <v>-0.5174506189417318</v>
@@ -4878,7 +4878,7 @@
         <v>-0.667795507825981</v>
       </c>
       <c r="F140">
-        <v>-0.667795507825981</v>
+        <v>0.1319066296719093</v>
       </c>
       <c r="G140">
         <v>-0.835317954088458</v>
@@ -4910,7 +4910,7 @@
         <v>0.1825523472732615</v>
       </c>
       <c r="F141">
-        <v>0.1825523472732615</v>
+        <v>-0.551740119596427</v>
       </c>
       <c r="G141">
         <v>1.074712558811953</v>
@@ -4942,7 +4942,7 @@
         <v>-0.7537749148575627</v>
       </c>
       <c r="F142">
-        <v>-0.7537749148575627</v>
+        <v>0.8684738507580867</v>
       </c>
       <c r="G142">
         <v>-0.6046724515767546</v>
@@ -4974,7 +4974,7 @@
         <v>-0.759670155567208</v>
       </c>
       <c r="F143">
-        <v>-0.759670155567208</v>
+        <v>0.8497630154883344</v>
       </c>
       <c r="G143">
         <v>-0.9054103895402187</v>
@@ -5006,7 +5006,7 @@
         <v>0.2223851989069853</v>
       </c>
       <c r="F144">
-        <v>0.2223851989069853</v>
+        <v>-0.1363619528841056</v>
       </c>
       <c r="G144">
         <v>0.3943341123719641</v>
@@ -5038,7 +5038,7 @@
         <v>0.7642817878940068</v>
       </c>
       <c r="F145">
-        <v>0.7642817878940068</v>
+        <v>-0.4030924780050069</v>
       </c>
       <c r="G145">
         <v>-0.4003871855591332</v>
@@ -5070,7 +5070,7 @@
         <v>-0.8229799727592639</v>
       </c>
       <c r="F146">
-        <v>-0.8229799727592639</v>
+        <v>0.3498607862594377</v>
       </c>
       <c r="G146">
         <v>-0.8142676429701814</v>
@@ -5102,7 +5102,7 @@
         <v>0.8396806351871793</v>
       </c>
       <c r="F147">
-        <v>0.8396806351871793</v>
+        <v>-0.4555995385623786</v>
       </c>
       <c r="G147">
         <v>0.7662201372785766</v>
@@ -5134,7 +5134,7 @@
         <v>-0.3751035895329397</v>
       </c>
       <c r="F148">
-        <v>-0.3751035895329397</v>
+        <v>2.329110127464963</v>
       </c>
       <c r="G148">
         <v>-0.827535314951316</v>
@@ -5166,7 +5166,7 @@
         <v>-0.7136517671955488</v>
       </c>
       <c r="F149">
-        <v>-0.7136517671955488</v>
+        <v>2.050747949340355</v>
       </c>
       <c r="G149">
         <v>-0.2878236720910971</v>
@@ -5198,7 +5198,7 @@
         <v>0.4176403825299682</v>
       </c>
       <c r="F150">
-        <v>0.4176403825299682</v>
+        <v>0.4123032245284086</v>
       </c>
       <c r="G150">
         <v>0.2184786875974606</v>
@@ -5230,7 +5230,7 @@
         <v>-0.8694395000045574</v>
       </c>
       <c r="F151">
-        <v>-0.8694395000045574</v>
+        <v>-0.6757982491423314</v>
       </c>
       <c r="G151">
         <v>-0.7308590569047948</v>
@@ -5262,7 +5262,7 @@
         <v>0.4424735798158481</v>
       </c>
       <c r="F152">
-        <v>0.4424735798158481</v>
+        <v>-0.8334440107315179</v>
       </c>
       <c r="G152">
         <v>-0.1130649358088545</v>
@@ -5294,7 +5294,7 @@
         <v>-0.876181830661839</v>
       </c>
       <c r="F153">
-        <v>-0.876181830661839</v>
+        <v>-0.8524553492634975</v>
       </c>
       <c r="G153">
         <v>-0.897423432144229</v>
@@ -5326,7 +5326,7 @@
         <v>0.2679278284837771</v>
       </c>
       <c r="F154">
-        <v>0.2679278284837771</v>
+        <v>-0.3904364240624432</v>
       </c>
       <c r="G154">
         <v>-0.446141694544632</v>
@@ -5358,7 +5358,7 @@
         <v>-0.8138641508889505</v>
       </c>
       <c r="F155">
-        <v>-0.8138641508889505</v>
+        <v>0.6482553183035176</v>
       </c>
       <c r="G155">
         <v>-0.7073409440889902</v>
@@ -5390,7 +5390,7 @@
         <v>-0.1880202685328554</v>
       </c>
       <c r="F156">
-        <v>-0.1880202685328554</v>
+        <v>-0.2868974220970061</v>
       </c>
       <c r="G156">
         <v>0.5681839072891754</v>
@@ -5422,7 +5422,7 @@
         <v>-0.7126791798907169</v>
       </c>
       <c r="F157">
-        <v>-0.7126791798907169</v>
+        <v>0.7685356275949012</v>
       </c>
       <c r="G157">
         <v>-0.7685915110360487</v>
@@ -5454,7 +5454,7 @@
         <v>0.0566741289338934</v>
       </c>
       <c r="F158">
-        <v>0.0566741289338934</v>
+        <v>-0.9616316521987411</v>
       </c>
       <c r="G158">
         <v>2.098403077507634</v>
@@ -5486,7 +5486,7 @@
         <v>0.2990740272996758</v>
       </c>
       <c r="F159">
-        <v>0.2990740272996758</v>
+        <v>-0.3540190234865115</v>
       </c>
       <c r="G159">
         <v>1.164474213724892</v>
@@ -5518,7 +5518,7 @@
         <v>-0.7273459323293295</v>
       </c>
       <c r="F160">
-        <v>-0.7273459323293295</v>
+        <v>-0.3035819638671227</v>
       </c>
       <c r="G160">
         <v>-0.3033135157623456</v>
@@ -5550,7 +5550,7 @@
         <v>-0.757940285603652</v>
       </c>
       <c r="F161">
-        <v>-0.757940285603652</v>
+        <v>-0.4155550338928086</v>
       </c>
       <c r="G161">
         <v>-0.3132736412968674</v>
@@ -5582,7 +5582,7 @@
         <v>0.7674232897309324</v>
       </c>
       <c r="F162">
-        <v>0.7674232897309324</v>
+        <v>-0.2876435928674716</v>
       </c>
       <c r="G162">
         <v>1.164633120102252</v>
@@ -5614,7 +5614,7 @@
         <v>-0.675825059767273</v>
       </c>
       <c r="F163">
-        <v>-0.675825059767273</v>
+        <v>-0.8673102659548434</v>
       </c>
       <c r="G163">
         <v>-0.3291794659690759</v>
@@ -5646,7 +5646,7 @@
         <v>-0.7388345214412562</v>
       </c>
       <c r="F164">
-        <v>-0.7388345214412562</v>
+        <v>-0.9673967750599684</v>
       </c>
       <c r="G164">
         <v>-0.8696588711152305</v>
@@ -5678,7 +5678,7 @@
         <v>2.292739681747849</v>
       </c>
       <c r="F165">
-        <v>2.292739681747849</v>
+        <v>-0.4694334549629986</v>
       </c>
       <c r="G165">
         <v>2.459900629955461</v>
@@ -5710,7 +5710,7 @@
         <v>0.955517427792094</v>
       </c>
       <c r="F166">
-        <v>0.955517427792094</v>
+        <v>-0.6783760391618054</v>
       </c>
       <c r="G166">
         <v>0.408078448164586</v>
@@ -5742,7 +5742,7 @@
         <v>-0.7893479304254388</v>
       </c>
       <c r="F167">
-        <v>-0.7893479304254388</v>
+        <v>0.6964418842765581</v>
       </c>
       <c r="G167">
         <v>-0.466113208238107</v>
@@ -5774,7 +5774,7 @@
         <v>-0.8322168396933455</v>
       </c>
       <c r="F168">
-        <v>-0.8322168396933455</v>
+        <v>0.2325693962477585</v>
       </c>
       <c r="G168">
         <v>-0.3832706258734924</v>
@@ -5806,7 +5806,7 @@
         <v>1.688493129959908</v>
       </c>
       <c r="F169">
-        <v>1.688493129959908</v>
+        <v>-0.1808815385691324</v>
       </c>
       <c r="G169">
         <v>-0.1563620617521485</v>
@@ -5838,7 +5838,7 @@
         <v>2.522812264897053</v>
       </c>
       <c r="F170">
-        <v>2.522812264897053</v>
+        <v>-0.3008514569370401</v>
       </c>
       <c r="G170">
         <v>0.04400271501720169</v>
@@ -5870,7 +5870,7 @@
         <v>0.01961068163001882</v>
       </c>
       <c r="F171">
-        <v>0.01961068163001882</v>
+        <v>0.1407616293456374</v>
       </c>
       <c r="G171">
         <v>-0.6308586919899732</v>
@@ -5902,7 +5902,7 @@
         <v>-0.1837866156346815</v>
       </c>
       <c r="F172">
-        <v>-0.1837866156346815</v>
+        <v>-0.5013482797058395</v>
       </c>
       <c r="G172">
         <v>0.8345811932755938</v>
@@ -5934,7 +5934,7 @@
         <v>-0.8596849204204362</v>
       </c>
       <c r="F173">
-        <v>-0.8596849204204362</v>
+        <v>1.734702593309157</v>
       </c>
       <c r="G173">
         <v>-1.052295307382709</v>
@@ -5966,7 +5966,7 @@
         <v>-0.9176920526152886</v>
       </c>
       <c r="F174">
-        <v>-0.9176920526152886</v>
+        <v>1.878665276874821</v>
       </c>
       <c r="G174">
         <v>-1.160651184839845</v>
@@ -5998,7 +5998,7 @@
         <v>0.146236746335791</v>
       </c>
       <c r="F175">
-        <v>0.146236746335791</v>
+        <v>1.996627591855911</v>
       </c>
       <c r="G175">
         <v>1.648021956788886</v>
@@ -6030,7 +6030,7 @@
         <v>-0.8081280195134718</v>
       </c>
       <c r="F176">
-        <v>-0.8081280195134718</v>
+        <v>-0.7120997713973456</v>
       </c>
       <c r="G176">
         <v>-0.9951337721326177</v>
@@ -6062,7 +6062,7 @@
         <v>-0.7959020814892077</v>
       </c>
       <c r="F177">
-        <v>-0.7959020814892077</v>
+        <v>-0.7605954467360827</v>
       </c>
       <c r="G177">
         <v>-0.7034220862922091</v>
@@ -6094,7 +6094,7 @@
         <v>0.03290744764813977</v>
       </c>
       <c r="F178">
-        <v>0.03290744764813977</v>
+        <v>1.389975681728915</v>
       </c>
       <c r="G178">
         <v>-0.3317296467749022</v>
@@ -6126,7 +6126,7 @@
         <v>0.7827978552921733</v>
       </c>
       <c r="F179">
-        <v>0.7827978552921733</v>
+        <v>0.06441396489503258</v>
       </c>
       <c r="G179">
         <v>1.430568427533185</v>
@@ -6158,7 +6158,7 @@
         <v>1.17493788674785</v>
       </c>
       <c r="F180">
-        <v>1.17493788674785</v>
+        <v>0.4361657739381709</v>
       </c>
       <c r="G180">
         <v>-0.2388830755492104</v>
@@ -6190,7 +6190,7 @@
         <v>-0.8762566213859799</v>
       </c>
       <c r="F181">
-        <v>-0.8762566213859799</v>
+        <v>-1.165018769277591</v>
       </c>
       <c r="G181">
         <v>-0.8145979193025451</v>
@@ -6222,7 +6222,7 @@
         <v>-0.875144265225176</v>
       </c>
       <c r="F182">
-        <v>-0.875144265225176</v>
+        <v>-1.083699568526356</v>
       </c>
       <c r="G182">
         <v>-0.5616153068686919</v>
@@ -6254,7 +6254,7 @@
         <v>1.289785857516371</v>
       </c>
       <c r="F183">
-        <v>1.289785857516371</v>
+        <v>0.2904669697555307</v>
       </c>
       <c r="G183">
         <v>-0.2356416968317863</v>
@@ -6286,7 +6286,7 @@
         <v>-0.8022076283948024</v>
       </c>
       <c r="F184">
-        <v>-0.8022076283948024</v>
+        <v>-0.9116165753333892</v>
       </c>
       <c r="G184">
         <v>-0.779729397559456</v>
@@ -6318,7 +6318,7 @@
         <v>0.9641533524415791</v>
       </c>
       <c r="F185">
-        <v>0.9641533524415791</v>
+        <v>-0.1038419596409803</v>
       </c>
       <c r="G185">
         <v>0.2013398236778471</v>
@@ -6350,7 +6350,7 @@
         <v>-0.7579466311510701</v>
       </c>
       <c r="F186">
-        <v>-0.7579466311510701</v>
+        <v>-0.6634215016549725</v>
       </c>
       <c r="G186">
         <v>-1.027526146189801</v>
@@ -6382,7 +6382,7 @@
         <v>-0.7114303240936676</v>
       </c>
       <c r="F187">
-        <v>-0.7114303240936676</v>
+        <v>0.3345689238000507</v>
       </c>
       <c r="G187">
         <v>-0.2669414759518782</v>
@@ -6414,7 +6414,7 @@
         <v>0.8808025031187874</v>
       </c>
       <c r="F188">
-        <v>0.8808025031187874</v>
+        <v>0.06072784735951357</v>
       </c>
       <c r="G188">
         <v>0.0426365696179836</v>
@@ -6446,7 +6446,7 @@
         <v>0.9639589815107524</v>
       </c>
       <c r="F189">
-        <v>0.9639589815107524</v>
+        <v>-0.6932154267779892</v>
       </c>
       <c r="G189">
         <v>0.1544912352069237</v>
@@ -6478,7 +6478,7 @@
         <v>-0.7206494910279628</v>
       </c>
       <c r="F190">
-        <v>-0.7206494910279628</v>
+        <v>0.1102948460558843</v>
       </c>
       <c r="G190">
         <v>-0.367900483230052</v>
@@ -6510,7 +6510,7 @@
         <v>0.07695848532415378</v>
       </c>
       <c r="F191">
-        <v>0.07695848532415378</v>
+        <v>-0.793390208301232</v>
       </c>
       <c r="G191">
         <v>1.14958168563129</v>
@@ -6542,7 +6542,7 @@
         <v>-0.7892094324239871</v>
       </c>
       <c r="F192">
-        <v>-0.7892094324239871</v>
+        <v>0.3550668960783371</v>
       </c>
       <c r="G192">
         <v>-0.01325093213922899</v>
@@ -6574,7 +6574,7 @@
         <v>0.3855592270146311</v>
       </c>
       <c r="F193">
-        <v>0.3855592270146311</v>
+        <v>-0.8682364662107895</v>
       </c>
       <c r="G193">
         <v>-0.4253296210509684</v>
@@ -6606,7 +6606,7 @@
         <v>-0.8914707499414606</v>
       </c>
       <c r="F194">
-        <v>-0.8914707499414606</v>
+        <v>0.3030524159843357</v>
       </c>
       <c r="G194">
         <v>-0.471546537157884</v>
@@ -6638,7 +6638,7 @@
         <v>-0.6112407933854433</v>
       </c>
       <c r="F195">
-        <v>-0.6112407933854433</v>
+        <v>-0.6311191868904756</v>
       </c>
       <c r="G195">
         <v>-0.6210282932443154</v>
@@ -6670,7 +6670,7 @@
         <v>2.543586693077651</v>
       </c>
       <c r="F196">
-        <v>2.543586693077651</v>
+        <v>-0.1149050516408999</v>
       </c>
       <c r="G196">
         <v>0.09974354223538666</v>
@@ -6702,7 +6702,7 @@
         <v>-0.5182680492672119</v>
       </c>
       <c r="F197">
-        <v>-0.5182680492672119</v>
+        <v>0.6614224930262895</v>
       </c>
       <c r="G197">
         <v>-0.8955952308587581</v>
@@ -6734,7 +6734,7 @@
         <v>1.089541990306782</v>
       </c>
       <c r="F198">
-        <v>1.089541990306782</v>
+        <v>-0.4441813153564581</v>
       </c>
       <c r="G198">
         <v>-0.2081591315942325</v>
@@ -6766,7 +6766,7 @@
         <v>-0.8917134261291335</v>
       </c>
       <c r="F199">
-        <v>-0.8917134261291335</v>
+        <v>-1.083785877148029</v>
       </c>
       <c r="G199">
         <v>-0.1623955286960687</v>
@@ -6798,7 +6798,7 @@
         <v>0.7021162882608996</v>
       </c>
       <c r="F200">
-        <v>0.7021162882608996</v>
+        <v>-0.7347918545029893</v>
       </c>
       <c r="G200">
         <v>-0.2333477902719063</v>
@@ -6830,7 +6830,7 @@
         <v>-0.8216459199472558</v>
       </c>
       <c r="F201">
-        <v>-0.8216459199472558</v>
+        <v>-0.5085657322229801</v>
       </c>
       <c r="G201">
         <v>-0.6687490638116609</v>
@@ -6862,7 +6862,7 @@
         <v>0.7512093288681145</v>
       </c>
       <c r="F202">
-        <v>0.7512093288681145</v>
+        <v>0.1922098421980478</v>
       </c>
       <c r="G202">
         <v>-0.04489061092916491</v>
@@ -6894,7 +6894,7 @@
         <v>-0.6906303576702449</v>
       </c>
       <c r="F203">
-        <v>-0.6906303576702449</v>
+        <v>1.264996729710872</v>
       </c>
       <c r="G203">
         <v>-0.824991310824545</v>
@@ -6926,7 +6926,7 @@
         <v>0.5109794457527396</v>
       </c>
       <c r="F204">
-        <v>0.5109794457527396</v>
+        <v>-0.5672223730607607</v>
       </c>
       <c r="G204">
         <v>-0.3679454830743237</v>
@@ -6958,7 +6958,7 @@
         <v>-0.4897117225112441</v>
       </c>
       <c r="F205">
-        <v>-0.4897117225112441</v>
+        <v>-0.1774349828841699</v>
       </c>
       <c r="G205">
         <v>-0.9050118871478487</v>
@@ -6990,7 +6990,7 @@
         <v>0.8514069913662753</v>
       </c>
       <c r="F206">
-        <v>0.8514069913662753</v>
+        <v>-0.5414721040953303</v>
       </c>
       <c r="G206">
         <v>-0.2425393062552636</v>
@@ -7022,7 +7022,7 @@
         <v>0.3211107553470101</v>
       </c>
       <c r="F207">
-        <v>0.3211107553470101</v>
+        <v>-0.9264666892700176</v>
       </c>
       <c r="G207">
         <v>-0.03274789078147521</v>
@@ -7054,7 +7054,7 @@
         <v>0.6109419041596418</v>
       </c>
       <c r="F208">
-        <v>0.6109419041596418</v>
+        <v>0.1274673525092378</v>
       </c>
       <c r="G208">
         <v>-0.4351564408241635</v>
@@ -7086,7 +7086,7 @@
         <v>-0.8845315239852393</v>
       </c>
       <c r="F209">
-        <v>-0.8845315239852393</v>
+        <v>2.919098067532588</v>
       </c>
       <c r="G209">
         <v>-0.5435182498125471</v>
@@ -7118,7 +7118,7 @@
         <v>-0.8527107019990871</v>
       </c>
       <c r="F210">
-        <v>-0.8527107019990871</v>
+        <v>1.52938144731979</v>
       </c>
       <c r="G210">
         <v>-1.018033115606579</v>
@@ -7150,7 +7150,7 @@
         <v>-0.4178719393355086</v>
       </c>
       <c r="F211">
-        <v>-0.4178719393355086</v>
+        <v>0.8791538207492473</v>
       </c>
       <c r="G211">
         <v>-0.3975342720884499</v>
@@ -7182,7 +7182,7 @@
         <v>-0.5411439588534206</v>
       </c>
       <c r="F212">
-        <v>-0.5411439588534206</v>
+        <v>0.3310806263208498</v>
       </c>
       <c r="G212">
         <v>-0.8977242620674348</v>
@@ -7214,7 +7214,7 @@
         <v>2.083950002253866</v>
       </c>
       <c r="F213">
-        <v>2.083950002253866</v>
+        <v>-0.6696036464726488</v>
       </c>
       <c r="G213">
         <v>1.088642575979935</v>
@@ -7246,7 +7246,7 @@
         <v>1.812729737561264</v>
       </c>
       <c r="F214">
-        <v>1.812729737561264</v>
+        <v>-0.5918890971372855</v>
       </c>
       <c r="G214">
         <v>1.060369748154823</v>
@@ -7278,7 +7278,7 @@
         <v>-0.7992944897309772</v>
       </c>
       <c r="F215">
-        <v>-0.7992944897309772</v>
+        <v>-0.5900234670356791</v>
       </c>
       <c r="G215">
         <v>-0.6882438511206606</v>
@@ -7310,7 +7310,7 @@
         <v>0.03452377902260208</v>
       </c>
       <c r="F216">
-        <v>0.03452377902260208</v>
+        <v>-0.7087970719024093</v>
       </c>
       <c r="G216">
         <v>-0.6122493143863894</v>
@@ -7342,7 +7342,7 @@
         <v>-0.874559301258395</v>
       </c>
       <c r="F217">
-        <v>-0.874559301258395</v>
+        <v>-0.599596727388488</v>
       </c>
       <c r="G217">
         <v>-0.8205018648015678</v>
@@ -7374,7 +7374,7 @@
         <v>-0.1784544779628007</v>
       </c>
       <c r="F218">
-        <v>-0.1784544779628007</v>
+        <v>-1.012380690651089</v>
       </c>
       <c r="G218">
         <v>0.5504345318067356</v>
@@ -7406,7 +7406,7 @@
         <v>-0.8519264589470524</v>
       </c>
       <c r="F219">
-        <v>-0.8519264589470524</v>
+        <v>-0.213169684905276</v>
       </c>
       <c r="G219">
         <v>0.3363029067995975</v>
@@ -7438,7 +7438,7 @@
         <v>0.3776084684518184</v>
       </c>
       <c r="F220">
-        <v>0.3776084684518184</v>
+        <v>0.6167818366338476</v>
       </c>
       <c r="G220">
         <v>0.5350522237771376</v>
@@ -7470,7 +7470,7 @@
         <v>-0.8071578880175116</v>
       </c>
       <c r="F221">
-        <v>-0.8071578880175116</v>
+        <v>-0.3966113957076821</v>
       </c>
       <c r="G221">
         <v>-0.9293086727184702</v>
@@ -7502,7 +7502,7 @@
         <v>0.2504554251020421</v>
       </c>
       <c r="F222">
-        <v>0.2504554251020421</v>
+        <v>-0.3338002359429302</v>
       </c>
       <c r="G222">
         <v>-0.3909662070114511</v>
@@ -7534,7 +7534,7 @@
         <v>-0.5165649369434847</v>
       </c>
       <c r="F223">
-        <v>-0.5165649369434847</v>
+        <v>0.1379126777794677</v>
       </c>
       <c r="G223">
         <v>-0.6867917642537257</v>
@@ -7566,7 +7566,7 @@
         <v>1.883287271582057</v>
       </c>
       <c r="F224">
-        <v>1.883287271582057</v>
+        <v>-0.3620167778600689</v>
       </c>
       <c r="G224">
         <v>2.723996944115932</v>
@@ -7598,7 +7598,7 @@
         <v>1.395286525115658</v>
       </c>
       <c r="F225">
-        <v>1.395286525115658</v>
+        <v>0.1076614332832975</v>
       </c>
       <c r="G225">
         <v>0.5597058803802132</v>
@@ -7630,7 +7630,7 @@
         <v>-0.4872042874565266</v>
       </c>
       <c r="F226">
-        <v>-0.4872042874565266</v>
+        <v>-0.1150278994856301</v>
       </c>
       <c r="G226">
         <v>-0.8347920978739097</v>
@@ -7662,7 +7662,7 @@
         <v>0.1358588686694179</v>
       </c>
       <c r="F227">
-        <v>0.1358588686694179</v>
+        <v>0.7810085765927191</v>
       </c>
       <c r="G227">
         <v>0.3142167927293205</v>
@@ -7694,7 +7694,7 @@
         <v>0.2678158541156592</v>
       </c>
       <c r="F228">
-        <v>0.2678158541156592</v>
+        <v>0.1028436917573631</v>
       </c>
       <c r="G228">
         <v>0.15294641610091</v>
@@ -7726,7 +7726,7 @@
         <v>-0.5431893322334082</v>
       </c>
       <c r="F229">
-        <v>-0.5431893322334082</v>
+        <v>3.137756473061765</v>
       </c>
       <c r="G229">
         <v>-1.034532682449762</v>
@@ -7758,7 +7758,7 @@
         <v>-0.5339751102769302</v>
       </c>
       <c r="F230">
-        <v>-0.5339751102769302</v>
+        <v>1.877179952130863</v>
       </c>
       <c r="G230">
         <v>-0.883575526926565</v>
@@ -7790,7 +7790,7 @@
         <v>0.7168544719032236</v>
       </c>
       <c r="F231">
-        <v>0.7168544719032236</v>
+        <v>-0.2673638117720428</v>
       </c>
       <c r="G231">
         <v>0.03896890230711194</v>
@@ -7822,7 +7822,7 @@
         <v>-0.8790238551910466</v>
       </c>
       <c r="F232">
-        <v>-0.8790238551910466</v>
+        <v>0.8755538290067956</v>
       </c>
       <c r="G232">
         <v>0.1975731945738246</v>
@@ -7854,7 +7854,7 @@
         <v>-0.8855370835968258</v>
       </c>
       <c r="F233">
-        <v>-0.8855370835968258</v>
+        <v>1.227437361696113</v>
       </c>
       <c r="G233">
         <v>0.2429086441697954</v>
@@ -7886,7 +7886,7 @@
         <v>0.2791560932345468</v>
       </c>
       <c r="F234">
-        <v>0.2791560932345468</v>
+        <v>-0.5954465907600111</v>
       </c>
       <c r="G234">
         <v>2.537431967683073</v>
@@ -7918,7 +7918,7 @@
         <v>-0.8609763573986842</v>
       </c>
       <c r="F235">
-        <v>-0.8609763573986842</v>
+        <v>-0.5693713019688312</v>
       </c>
       <c r="G235">
         <v>-0.649343664122822</v>
@@ -7950,7 +7950,7 @@
         <v>-0.8774754007876389</v>
       </c>
       <c r="F236">
-        <v>-0.8774754007876389</v>
+        <v>-0.2042192489243766</v>
       </c>
       <c r="G236">
         <v>-0.3199027269267294</v>
@@ -7982,7 +7982,7 @@
         <v>0.5156148978931433</v>
       </c>
       <c r="F237">
-        <v>0.5156148978931433</v>
+        <v>-0.1689768982112395</v>
       </c>
       <c r="G237">
         <v>0.9858957404013921</v>
@@ -8014,7 +8014,7 @@
         <v>0.05680038761165587</v>
       </c>
       <c r="F238">
-        <v>0.05680038761165587</v>
+        <v>-0.5827399276780758</v>
       </c>
       <c r="G238">
         <v>0.4193289531620485</v>
@@ -8046,7 +8046,7 @@
         <v>0.3954712326986476</v>
       </c>
       <c r="F239">
-        <v>0.3954712326986476</v>
+        <v>-0.04061578610522536</v>
       </c>
       <c r="G239">
         <v>0.9740771705051133</v>
@@ -8078,7 +8078,7 @@
         <v>-0.5308220844082839</v>
       </c>
       <c r="F240">
-        <v>-0.5308220844082839</v>
+        <v>0.5803203087942548</v>
       </c>
       <c r="G240">
         <v>-0.65561592796905</v>
@@ -8110,7 +8110,7 @@
         <v>0.8691606603520257</v>
       </c>
       <c r="F241">
-        <v>0.8691606603520257</v>
+        <v>-0.5952385214410807</v>
       </c>
       <c r="G241">
         <v>-0.4401038689958168</v>
@@ -8142,7 +8142,7 @@
         <v>1.169903466136775</v>
       </c>
       <c r="F242">
-        <v>1.169903466136775</v>
+        <v>-0.1158218214648409</v>
       </c>
       <c r="G242">
         <v>0.1755401201333449</v>
@@ -8174,7 +8174,7 @@
         <v>-0.6295245430462458</v>
       </c>
       <c r="F243">
-        <v>-0.6295245430462458</v>
+        <v>0.241495031710725</v>
       </c>
       <c r="G243">
         <v>-0.925169361433877</v>
@@ -8206,7 +8206,7 @@
         <v>1.075613431504172</v>
       </c>
       <c r="F244">
-        <v>1.075613431504172</v>
+        <v>0.4833723671348595</v>
       </c>
       <c r="G244">
         <v>0.5004722803013314</v>
@@ -8238,7 +8238,7 @@
         <v>0.1430780016132732</v>
       </c>
       <c r="F245">
-        <v>0.1430780016132732</v>
+        <v>-0.3904381166127991</v>
       </c>
       <c r="G245">
         <v>-0.6718503228055999</v>
@@ -8270,7 +8270,7 @@
         <v>-0.8162730711318117</v>
       </c>
       <c r="F246">
-        <v>-0.8162730711318117</v>
+        <v>-0.7008489559235835</v>
       </c>
       <c r="G246">
         <v>-1.038501481754512</v>
@@ -8302,7 +8302,7 @@
         <v>-0.789100724903491</v>
       </c>
       <c r="F247">
-        <v>-0.789100724903491</v>
+        <v>-0.6353661671151833</v>
       </c>
       <c r="G247">
         <v>-1.054374071568955</v>
@@ -8334,7 +8334,7 @@
         <v>0.125720640793976</v>
       </c>
       <c r="F248">
-        <v>0.125720640793976</v>
+        <v>-0.4296127231340428</v>
       </c>
       <c r="G248">
         <v>-0.5752781007829563</v>
@@ -8366,7 +8366,7 @@
         <v>-0.6931920787696871</v>
       </c>
       <c r="F249">
-        <v>-0.6931920787696871</v>
+        <v>2.089182412847085</v>
       </c>
       <c r="G249">
         <v>-0.06310342809555887</v>
@@ -8398,7 +8398,7 @@
         <v>-0.7693749704631847</v>
       </c>
       <c r="F250">
-        <v>-0.7693749704631847</v>
+        <v>1.983364720620798</v>
       </c>
       <c r="G250">
         <v>-0.5213910916576672</v>
@@ -8430,7 +8430,7 @@
         <v>0.1111586814775447</v>
       </c>
       <c r="F251">
-        <v>0.1111586814775447</v>
+        <v>-0.2629915146827164</v>
       </c>
       <c r="G251">
         <v>0.5090920234725786</v>
@@ -8462,7 +8462,7 @@
         <v>-0.8345268115016558</v>
       </c>
       <c r="F252">
-        <v>-0.8345268115016558</v>
+        <v>0.3090510024134814</v>
       </c>
       <c r="G252">
         <v>-0.2842871894690875</v>
@@ -8494,7 +8494,7 @@
         <v>1.954535706956493</v>
       </c>
       <c r="F253">
-        <v>1.954535706956493</v>
+        <v>-0.6195082207385265</v>
       </c>
       <c r="G253">
         <v>1.091560039221144</v>
@@ -8526,7 +8526,7 @@
         <v>-0.8361068038058328</v>
       </c>
       <c r="F254">
-        <v>-0.8361068038058328</v>
+        <v>-0.8545687536765678</v>
       </c>
       <c r="G254">
         <v>-0.9877032484809194</v>
@@ -8558,7 +8558,7 @@
         <v>1.965694546745013</v>
       </c>
       <c r="F255">
-        <v>1.965694546745013</v>
+        <v>-0.5987437529861918</v>
       </c>
       <c r="G255">
         <v>3.758556611258439</v>
@@ -8590,7 +8590,7 @@
         <v>-0.1554935100551003</v>
       </c>
       <c r="F256">
-        <v>-0.1554935100551003</v>
+        <v>-0.3416645131311391</v>
       </c>
       <c r="G256">
         <v>1.246194722360471</v>
@@ -8622,7 +8622,7 @@
         <v>1.828223662610206</v>
       </c>
       <c r="F257">
-        <v>1.828223662610206</v>
+        <v>-0.4367401146492454</v>
       </c>
       <c r="G257">
         <v>0.1889738236323296</v>
@@ -8654,7 +8654,7 @@
         <v>-0.05712306660672888</v>
       </c>
       <c r="F258">
-        <v>-0.05712306660672888</v>
+        <v>0.4491448197825788</v>
       </c>
       <c r="G258">
         <v>0.974908967135569</v>
@@ -8686,7 +8686,7 @@
         <v>1.677719785100239</v>
       </c>
       <c r="F259">
-        <v>1.677719785100239</v>
+        <v>-0.5182108296620836</v>
       </c>
       <c r="G259">
         <v>1.743640882559375</v>
@@ -8718,7 +8718,7 @@
         <v>0.3063444342554212</v>
       </c>
       <c r="F260">
-        <v>0.3063444342554212</v>
+        <v>-0.3704246474417743</v>
       </c>
       <c r="G260">
         <v>-0.1109162670548755</v>
@@ -8750,7 +8750,7 @@
         <v>0.2241850985438699</v>
       </c>
       <c r="F261">
-        <v>0.2241850985438699</v>
+        <v>0.3006075351963207</v>
       </c>
       <c r="G261">
         <v>0.1696733381817715</v>
@@ -8782,7 +8782,7 @@
         <v>-0.8739044771352097</v>
       </c>
       <c r="F262">
-        <v>-0.8739044771352097</v>
+        <v>-0.6673544885521788</v>
       </c>
       <c r="G262">
         <v>-1.003033929073767</v>
@@ -8814,7 +8814,7 @@
         <v>-0.8912130100978846</v>
       </c>
       <c r="F263">
-        <v>-0.8912130100978846</v>
+        <v>-1.247524565448259</v>
       </c>
       <c r="G263">
         <v>-0.6886279995059408</v>
@@ -8846,7 +8846,7 @@
         <v>-0.7794080668480204</v>
       </c>
       <c r="F264">
-        <v>-0.7794080668480204</v>
+        <v>-0.5655035762316033</v>
       </c>
       <c r="G264">
         <v>-0.8420985031991058</v>
@@ -8878,7 +8878,7 @@
         <v>-0.748375455061096</v>
       </c>
       <c r="F265">
-        <v>-0.748375455061096</v>
+        <v>0.1386727668226052</v>
       </c>
       <c r="G265">
         <v>0.5524601744785886</v>
@@ -8910,7 +8910,7 @@
         <v>2.775125124392338</v>
       </c>
       <c r="F266">
-        <v>2.775125124392338</v>
+        <v>-0.3666619272438474</v>
       </c>
       <c r="G266">
         <v>0.4610446241057617</v>
@@ -8942,7 +8942,7 @@
         <v>1.677471177021705</v>
       </c>
       <c r="F267">
-        <v>1.677471177021705</v>
+        <v>-0.620258899403574</v>
       </c>
       <c r="G267">
         <v>-0.1075152670932304</v>
@@ -8974,7 +8974,7 @@
         <v>-0.583881053027553</v>
       </c>
       <c r="F268">
-        <v>-0.583881053027553</v>
+        <v>-0.5818418178184827</v>
       </c>
       <c r="G268">
         <v>1.470987613593898</v>
@@ -9006,7 +9006,7 @@
         <v>2.899639931824094</v>
       </c>
       <c r="F269">
-        <v>2.899639931824094</v>
+        <v>-0.41505961586818</v>
       </c>
       <c r="G269">
         <v>3.629932102145764</v>
@@ -9038,7 +9038,7 @@
         <v>1.970349244802868</v>
       </c>
       <c r="F270">
-        <v>1.970349244802868</v>
+        <v>-0.4641572595531488</v>
       </c>
       <c r="G270">
         <v>-0.129836674231534</v>
@@ -9070,7 +9070,7 @@
         <v>-0.7569639831824273</v>
       </c>
       <c r="F271">
-        <v>-0.7569639831824273</v>
+        <v>-0.4348723134973711</v>
       </c>
       <c r="G271">
         <v>1.587011118508193</v>
@@ -9102,7 +9102,7 @@
         <v>0.4950852442308394</v>
       </c>
       <c r="F272">
-        <v>0.4950852442308394</v>
+        <v>-0.7768406038667407</v>
       </c>
       <c r="G272">
         <v>1.76191819265776</v>
@@ -9134,7 +9134,7 @@
         <v>0.1289802347979385</v>
       </c>
       <c r="F273">
-        <v>0.1289802347979385</v>
+        <v>-0.320291982445262</v>
       </c>
       <c r="G273">
         <v>1.366812710405084</v>
@@ -9166,7 +9166,7 @@
         <v>-0.7039904281292034</v>
       </c>
       <c r="F274">
-        <v>-0.7039904281292034</v>
+        <v>2.66800661843124</v>
       </c>
       <c r="G274">
         <v>0.6777223639395247</v>
@@ -9198,7 +9198,7 @@
         <v>-0.5124674684968077</v>
       </c>
       <c r="F275">
-        <v>-0.5124674684968077</v>
+        <v>2.459571977030555</v>
       </c>
       <c r="G275">
         <v>1.207776863631716</v>
@@ -9230,7 +9230,7 @@
         <v>-0.809930093252797</v>
       </c>
       <c r="F276">
-        <v>-0.809930093252797</v>
+        <v>1.129417503353614</v>
       </c>
       <c r="G276">
         <v>0.3904227558282348</v>
@@ -9262,7 +9262,7 @@
         <v>2.345829208743579</v>
       </c>
       <c r="F277">
-        <v>2.345829208743579</v>
+        <v>-0.5676105588856412</v>
       </c>
       <c r="G277">
         <v>1.666531719209151</v>
@@ -9294,7 +9294,7 @@
         <v>0.8729277647765952</v>
       </c>
       <c r="F278">
-        <v>0.8729277647765952</v>
+        <v>-0.3373544322515155</v>
       </c>
       <c r="G278">
         <v>0.748482746800061</v>
@@ -9326,7 +9326,7 @@
         <v>-0.798572799978012</v>
       </c>
       <c r="F279">
-        <v>-0.798572799978012</v>
+        <v>0.4574859593564864</v>
       </c>
       <c r="G279">
         <v>0.2920916730876686</v>
@@ -9358,7 +9358,7 @@
         <v>-0.8954607984195405</v>
       </c>
       <c r="F280">
-        <v>-0.8954607984195405</v>
+        <v>-0.9782371728945307</v>
       </c>
       <c r="G280">
         <v>-1.145446043536884</v>
@@ -9390,7 +9390,7 @@
         <v>0.6282228267354305</v>
       </c>
       <c r="F281">
-        <v>0.6282228267354305</v>
+        <v>-0.007455002436338687</v>
       </c>
       <c r="G281">
         <v>1.654672765870832</v>
@@ -9422,7 +9422,7 @@
         <v>1.041647912625018</v>
       </c>
       <c r="F282">
-        <v>1.041647912625018</v>
+        <v>-0.5428105606865478</v>
       </c>
       <c r="G282">
         <v>1.224941841485116</v>
@@ -9454,7 +9454,7 @@
         <v>-0.8455548001274749</v>
       </c>
       <c r="F283">
-        <v>-0.8455548001274749</v>
+        <v>-1.156567302892053</v>
       </c>
       <c r="G283">
         <v>-0.5086170011323131</v>
@@ -9486,7 +9486,7 @@
         <v>0.06333409599171852</v>
       </c>
       <c r="F284">
-        <v>0.06333409599171852</v>
+        <v>-0.8493655674479651</v>
       </c>
       <c r="G284">
         <v>3.434147865187575</v>
@@ -9518,7 +9518,7 @@
         <v>-0.9159206537739353</v>
       </c>
       <c r="F285">
-        <v>-0.9159206537739353</v>
+        <v>1.121081595552992</v>
       </c>
       <c r="G285">
         <v>0.05279929434081474</v>
@@ -9550,7 +9550,7 @@
         <v>0.562516131378338</v>
       </c>
       <c r="F286">
-        <v>0.562516131378338</v>
+        <v>-0.4792507916854969</v>
       </c>
       <c r="G286">
         <v>-0.3652749657285201</v>
@@ -9582,7 +9582,7 @@
         <v>-0.8940328296460074</v>
       </c>
       <c r="F287">
-        <v>-0.8940328296460074</v>
+        <v>0.3726206940462015</v>
       </c>
       <c r="G287">
         <v>0.3716371726933045</v>
@@ -9614,7 +9614,7 @@
         <v>-0.7828310060294809</v>
       </c>
       <c r="F288">
-        <v>-0.7828310060294809</v>
+        <v>-1.084771860059926</v>
       </c>
       <c r="G288">
         <v>-0.6638405369792927</v>
@@ -9646,7 +9646,7 @@
         <v>1.820818400221832</v>
       </c>
       <c r="F289">
-        <v>1.820818400221832</v>
+        <v>-0.34126506196364</v>
       </c>
       <c r="G289">
         <v>1.114024499339273</v>
@@ -9678,7 +9678,7 @@
         <v>2.195024470283796</v>
       </c>
       <c r="F290">
-        <v>2.195024470283796</v>
+        <v>-0.5271137537292585</v>
       </c>
       <c r="G290">
         <v>2.138829137573587</v>
@@ -9710,7 +9710,7 @@
         <v>-0.7680937724384269</v>
       </c>
       <c r="F291">
-        <v>-0.7680937724384269</v>
+        <v>-0.9092724044911943</v>
       </c>
       <c r="G291">
         <v>0.3220123514173419</v>
@@ -9742,7 +9742,7 @@
         <v>-0.8028686423487679</v>
       </c>
       <c r="F292">
-        <v>-0.8028686423487679</v>
+        <v>0.5910866391416818</v>
       </c>
       <c r="G292">
         <v>1.360471717385049</v>
@@ -9774,7 +9774,7 @@
         <v>0.6116730096529551</v>
       </c>
       <c r="F293">
-        <v>0.6116730096529551</v>
+        <v>-0.2949738198553291</v>
       </c>
       <c r="G293">
         <v>2.934530759323694</v>
@@ -9806,7 +9806,7 @@
         <v>-0.6794314099764845</v>
       </c>
       <c r="F294">
-        <v>-0.6794314099764845</v>
+        <v>0.6670217058898236</v>
       </c>
       <c r="G294">
         <v>1.284162441056154</v>
@@ -9838,7 +9838,7 @@
         <v>1.323442587467105</v>
       </c>
       <c r="F295">
-        <v>1.323442587467105</v>
+        <v>-0.5800289377129828</v>
       </c>
       <c r="G295">
         <v>4.010378410959551</v>
@@ -9870,7 +9870,7 @@
         <v>-0.7909097238469648</v>
       </c>
       <c r="F296">
-        <v>-0.7909097238469648</v>
+        <v>-0.5718752120615996</v>
       </c>
       <c r="G296">
         <v>-0.7526135037851948</v>
@@ -9902,7 +9902,7 @@
         <v>-0.7903900416219863</v>
       </c>
       <c r="F297">
-        <v>-0.7903900416219863</v>
+        <v>-0.3549217739570397</v>
       </c>
       <c r="G297">
         <v>-0.6247709253548389</v>
@@ -9934,7 +9934,7 @@
         <v>0.2078105772490677</v>
       </c>
       <c r="F298">
-        <v>0.2078105772490677</v>
+        <v>-0.3081454186968929</v>
       </c>
       <c r="G298">
         <v>0.4935165974114821</v>
@@ -9966,7 +9966,7 @@
         <v>0.7507007052737528</v>
       </c>
       <c r="F299">
-        <v>0.7507007052737528</v>
+        <v>-0.4722223013431864</v>
       </c>
       <c r="G299">
         <v>2.524813758190188</v>
@@ -9998,7 +9998,7 @@
         <v>1.717901449768696</v>
       </c>
       <c r="F300">
-        <v>1.717901449768696</v>
+        <v>-0.5579894564730952</v>
       </c>
       <c r="G300">
         <v>2.298716571413311</v>
@@ -10030,7 +10030,7 @@
         <v>-0.8034036603170794</v>
       </c>
       <c r="F301">
-        <v>-0.8034036603170794</v>
+        <v>0.382369701630242</v>
       </c>
       <c r="G301">
         <v>-0.2095777880417344</v>
@@ -10062,7 +10062,7 @@
         <v>-0.7724731552911949</v>
       </c>
       <c r="F302">
-        <v>-0.7724731552911949</v>
+        <v>-0.1585721438570503</v>
       </c>
       <c r="G302">
         <v>0.8025088296173913</v>
@@ -10094,7 +10094,7 @@
         <v>0.6527295797648601</v>
       </c>
       <c r="F303">
-        <v>0.6527295797648601</v>
+        <v>-0.7010272435125596</v>
       </c>
       <c r="G303">
         <v>1.021587305640492</v>
@@ -10126,7 +10126,7 @@
         <v>-0.8048650436009527</v>
       </c>
       <c r="F304">
-        <v>-0.8048650436009527</v>
+        <v>0.1126186866004068</v>
       </c>
       <c r="G304">
         <v>-1.150512669875534</v>
@@ -10158,7 +10158,7 @@
         <v>1.52807255150308</v>
       </c>
       <c r="F305">
-        <v>1.52807255150308</v>
+        <v>-0.06077657705303562</v>
       </c>
       <c r="G305">
         <v>1.199364924675602</v>
@@ -10190,7 +10190,7 @@
         <v>-0.8476441179900119</v>
       </c>
       <c r="F306">
-        <v>-0.8476441179900119</v>
+        <v>0.2768672997465217</v>
       </c>
       <c r="G306">
         <v>-1.099521074434598</v>
@@ -10222,7 +10222,7 @@
         <v>0.3429660837942767</v>
       </c>
       <c r="F307">
-        <v>0.3429660837942767</v>
+        <v>-0.4714463218037807</v>
       </c>
       <c r="G307">
         <v>-0.08256365639444566</v>
@@ -10254,7 +10254,7 @@
         <v>0.239827030797461</v>
       </c>
       <c r="F308">
-        <v>0.239827030797461</v>
+        <v>0.859161562941233</v>
       </c>
       <c r="G308">
         <v>-0.1311235836765923</v>
@@ -10286,7 +10286,7 @@
         <v>-0.3661780691070016</v>
       </c>
       <c r="F309">
-        <v>-0.3661780691070016</v>
+        <v>0.6886996596714529</v>
       </c>
       <c r="G309">
         <v>0.4554325008870448</v>
@@ -10318,7 +10318,7 @@
         <v>-0.3296521415198197</v>
       </c>
       <c r="F310">
-        <v>-0.3296521415198197</v>
+        <v>0.3144340322796059</v>
       </c>
       <c r="G310">
         <v>1.41618200561238</v>
@@ -10350,7 +10350,7 @@
         <v>0.7242503860286184</v>
       </c>
       <c r="F311">
-        <v>0.7242503860286184</v>
+        <v>0.5913269041861199</v>
       </c>
       <c r="G311">
         <v>2.394112611613855</v>
@@ -10382,7 +10382,7 @@
         <v>1.188136008529489</v>
       </c>
       <c r="F312">
-        <v>1.188136008529489</v>
+        <v>0.7957257768815204</v>
       </c>
       <c r="G312">
         <v>4.22061497420461</v>
@@ -10414,7 +10414,7 @@
         <v>-0.882426967313681</v>
       </c>
       <c r="F313">
-        <v>-0.882426967313681</v>
+        <v>-0.817130932796147</v>
       </c>
       <c r="G313">
         <v>-1.233384410914763</v>
@@ -10446,7 +10446,7 @@
         <v>-0.8650187764866615</v>
       </c>
       <c r="F314">
-        <v>-0.8650187764866615</v>
+        <v>-1.136393544452426</v>
       </c>
       <c r="G314">
         <v>-0.9395341906143621</v>
@@ -10478,7 +10478,7 @@
         <v>0.4808014524889299</v>
       </c>
       <c r="F315">
-        <v>0.4808014524889299</v>
+        <v>-0.7315096795357697</v>
       </c>
       <c r="G315">
         <v>1.506499991977111</v>
@@ -10510,7 +10510,7 @@
         <v>1.646537957620388</v>
       </c>
       <c r="F316">
-        <v>1.646537957620388</v>
+        <v>-0.3337008226065901</v>
       </c>
       <c r="G316">
         <v>1.061198157242304</v>
@@ -10542,7 +10542,7 @@
         <v>-0.8086824281369932</v>
       </c>
       <c r="F317">
-        <v>-0.8086824281369932</v>
+        <v>-0.7655980031972648</v>
       </c>
       <c r="G317">
         <v>-0.7261710662038067</v>
@@ -10574,7 +10574,7 @@
         <v>-0.7863630049702086</v>
       </c>
       <c r="F318">
-        <v>-0.7863630049702086</v>
+        <v>-0.5164886434059753</v>
       </c>
       <c r="G318">
         <v>-1.232745196397569</v>
@@ -10606,7 +10606,7 @@
         <v>1.572290597763052</v>
       </c>
       <c r="F319">
-        <v>1.572290597763052</v>
+        <v>-0.1537731142103159</v>
       </c>
       <c r="G319">
         <v>0.7218268367510879</v>
@@ -10638,7 +10638,7 @@
         <v>2.383716654769886</v>
       </c>
       <c r="F320">
-        <v>2.383716654769886</v>
+        <v>0.5386522811434623</v>
       </c>
       <c r="G320">
         <v>0.554277258770589</v>
@@ -10670,7 +10670,7 @@
         <v>3.81861772213822</v>
       </c>
       <c r="F321">
-        <v>3.81861772213822</v>
+        <v>0.145994064005273</v>
       </c>
       <c r="G321">
         <v>0.493984113338995</v>
@@ -10702,7 +10702,7 @@
         <v>-0.6783615544085632</v>
       </c>
       <c r="F322">
-        <v>-0.6783615544085632</v>
+        <v>-0.2182465275539206</v>
       </c>
       <c r="G322">
         <v>0.006475023396137121</v>
@@ -10734,7 +10734,7 @@
         <v>-0.7150303885001132</v>
       </c>
       <c r="F323">
-        <v>-0.7150303885001132</v>
+        <v>-0.7868426683688241</v>
       </c>
       <c r="G323">
         <v>0.8157727311122434</v>
@@ -10766,7 +10766,7 @@
         <v>1.254396611748591</v>
       </c>
       <c r="F324">
-        <v>1.254396611748591</v>
+        <v>-0.8748633442946931</v>
       </c>
       <c r="G324">
         <v>2.126674328695864</v>
@@ -10798,7 +10798,7 @@
         <v>-0.6429514494491916</v>
       </c>
       <c r="F325">
-        <v>-0.6429514494491916</v>
+        <v>-0.7273234958839009</v>
       </c>
       <c r="G325">
         <v>-0.344767702036159</v>
@@ -10830,7 +10830,7 @@
         <v>1.239011076403912</v>
       </c>
       <c r="F326">
-        <v>1.239011076403912</v>
+        <v>-0.7693246717751706</v>
       </c>
       <c r="G326">
         <v>0.3247923035202482</v>
@@ -10862,7 +10862,7 @@
         <v>-0.4960760144552433</v>
       </c>
       <c r="F327">
-        <v>-0.4960760144552433</v>
+        <v>-0.1121982736737585</v>
       </c>
       <c r="G327">
         <v>-0.611477272344269</v>
@@ -10894,7 +10894,7 @@
         <v>0.7195072564650397</v>
       </c>
       <c r="F328">
-        <v>0.7195072564650397</v>
+        <v>0.593387642649262</v>
       </c>
       <c r="G328">
         <v>1.389870974761195</v>
@@ -10926,7 +10926,7 @@
         <v>-0.8903979845484757</v>
       </c>
       <c r="F329">
-        <v>-0.8903979845484757</v>
+        <v>-1.154984278227195</v>
       </c>
       <c r="G329">
         <v>-0.5827844779899795</v>
@@ -10958,7 +10958,7 @@
         <v>0.4120819606133314</v>
       </c>
       <c r="F330">
-        <v>0.4120819606133314</v>
+        <v>0.7480390540433306</v>
       </c>
       <c r="G330">
         <v>-0.5336226457979434</v>
@@ -10990,7 +10990,7 @@
         <v>-0.8423859816282956</v>
       </c>
       <c r="F331">
-        <v>-0.8423859816282956</v>
+        <v>-0.9964675836175808</v>
       </c>
       <c r="G331">
         <v>-0.6685431464841081</v>
@@ -11022,7 +11022,7 @@
         <v>3.068346648615242</v>
       </c>
       <c r="F332">
-        <v>3.068346648615242</v>
+        <v>-0.4717065588342683</v>
       </c>
       <c r="G332">
         <v>0.4275382543909664</v>
@@ -11054,7 +11054,7 @@
         <v>-0.7586703821248582</v>
       </c>
       <c r="F333">
-        <v>-0.7586703821248582</v>
+        <v>2.095123999878242</v>
       </c>
       <c r="G333">
         <v>-0.8404829382475733</v>
@@ -11086,7 +11086,7 @@
         <v>1.111335937361195</v>
       </c>
       <c r="F334">
-        <v>1.111335937361195</v>
+        <v>0.3886046322706815</v>
       </c>
       <c r="G334">
         <v>-0.08194392501400946</v>
@@ -11118,7 +11118,7 @@
         <v>-0.808367127775268</v>
       </c>
       <c r="F335">
-        <v>-0.808367127775268</v>
+        <v>1.925502911443827</v>
       </c>
       <c r="G335">
         <v>-0.9965726760855492</v>
@@ -11150,7 +11150,7 @@
         <v>3.62017499391118</v>
       </c>
       <c r="F336">
-        <v>3.62017499391118</v>
+        <v>-0.392153668448253</v>
       </c>
       <c r="G336">
         <v>1.605076751696999</v>
@@ -11182,7 +11182,7 @@
         <v>1.515229305344825</v>
       </c>
       <c r="F337">
-        <v>1.515229305344825</v>
+        <v>-0.5620772112780834</v>
       </c>
       <c r="G337">
         <v>0.6095093050316093</v>
@@ -11214,7 +11214,7 @@
         <v>-0.8087862966284416</v>
       </c>
       <c r="F338">
-        <v>-0.8087862966284416</v>
+        <v>-0.5973507820149392</v>
       </c>
       <c r="G338">
         <v>-0.9718194133224856</v>
@@ -11246,7 +11246,7 @@
         <v>-0.5714473317991319</v>
       </c>
       <c r="F339">
-        <v>-0.5714473317991319</v>
+        <v>-0.5125817004144463</v>
       </c>
       <c r="G339">
         <v>-0.8106480560847323</v>
@@ -11278,7 +11278,7 @@
         <v>-0.8548248543383203</v>
       </c>
       <c r="F340">
-        <v>-0.8548248543383203</v>
+        <v>-1.164755219791132</v>
       </c>
       <c r="G340">
         <v>0.2983661354214581</v>
@@ -11310,7 +11310,7 @@
         <v>-0.8351896662694488</v>
       </c>
       <c r="F341">
-        <v>-0.8351896662694488</v>
+        <v>-0.8076206867988251</v>
       </c>
       <c r="G341">
         <v>0.5564500419899954</v>
@@ -11342,7 +11342,7 @@
         <v>-0.9273523956651378</v>
       </c>
       <c r="F342">
-        <v>-0.9273523956651378</v>
+        <v>-0.5809381358098413</v>
       </c>
       <c r="G342">
         <v>-0.8586265725438404</v>
@@ -11374,7 +11374,7 @@
         <v>0.500039821404782</v>
       </c>
       <c r="F343">
-        <v>0.500039821404782</v>
+        <v>-0.2165197088887026</v>
       </c>
       <c r="G343">
         <v>1.814650146777073</v>
@@ -11406,7 +11406,7 @@
         <v>0.4545351349602617</v>
       </c>
       <c r="F344">
-        <v>0.4545351349602617</v>
+        <v>-0.5205523439690271</v>
       </c>
       <c r="G344">
         <v>2.999319897245122</v>
@@ -11438,7 +11438,7 @@
         <v>-0.7744650864076538</v>
       </c>
       <c r="F345">
-        <v>-0.7744650864076538</v>
+        <v>-0.8011705754060334</v>
       </c>
       <c r="G345">
         <v>-1.25583573694606</v>
@@ -11470,7 +11470,7 @@
         <v>-0.8298160659428035</v>
       </c>
       <c r="F346">
-        <v>-0.8298160659428035</v>
+        <v>-1.286448276277564</v>
       </c>
       <c r="G346">
         <v>-0.16841150303259</v>
@@ -11502,7 +11502,7 @@
         <v>-0.7894684466855466</v>
       </c>
       <c r="F347">
-        <v>-0.7894684466855466</v>
+        <v>-0.8453910052265394</v>
       </c>
       <c r="G347">
         <v>-0.07733800527887384</v>
@@ -11534,7 +11534,7 @@
         <v>0.7016096197131927</v>
       </c>
       <c r="F348">
-        <v>0.7016096197131927</v>
+        <v>-0.4696464136515303</v>
       </c>
       <c r="G348">
         <v>-0.1749793873900319</v>
@@ -11566,7 +11566,7 @@
         <v>1.040569216192997</v>
       </c>
       <c r="F349">
-        <v>1.040569216192997</v>
+        <v>-0.7679561761329865</v>
       </c>
       <c r="G349">
         <v>-0.317046153610949</v>
@@ -11598,7 +11598,7 @@
         <v>0.1838317314499783</v>
       </c>
       <c r="F350">
-        <v>0.1838317314499783</v>
+        <v>0.6733413778371478</v>
       </c>
       <c r="G350">
         <v>-0.5483247018034971</v>
@@ -11630,7 +11630,7 @@
         <v>-0.7978756518170534</v>
       </c>
       <c r="F351">
-        <v>-0.7978756518170534</v>
+        <v>1.651099088462921</v>
       </c>
       <c r="G351">
         <v>-0.1099112145094698</v>
@@ -11662,7 +11662,7 @@
         <v>0.8499701138129834</v>
       </c>
       <c r="F352">
-        <v>0.8499701138129834</v>
+        <v>0.8284588017733716</v>
       </c>
       <c r="G352">
         <v>-0.2778707593161126</v>
@@ -11694,7 +11694,7 @@
         <v>-0.804865571709351</v>
       </c>
       <c r="F353">
-        <v>-0.804865571709351</v>
+        <v>2.304248003817029</v>
       </c>
       <c r="G353">
         <v>-0.6357257791449046</v>
@@ -11726,7 +11726,7 @@
         <v>-0.02405761862647276</v>
       </c>
       <c r="F354">
-        <v>-0.02405761862647276</v>
+        <v>-0.643503811149738</v>
       </c>
       <c r="G354">
         <v>2.133454241451043</v>
@@ -11758,7 +11758,7 @@
         <v>-0.8041182248641265</v>
       </c>
       <c r="F355">
-        <v>-0.8041182248641265</v>
+        <v>0.04265117404344659</v>
       </c>
       <c r="G355">
         <v>-0.4150709740473455</v>
@@ -11790,7 +11790,7 @@
         <v>0.4179802486449488</v>
       </c>
       <c r="F356">
-        <v>0.4179802486449488</v>
+        <v>-0.1253090601246767</v>
       </c>
       <c r="G356">
         <v>1.342218411785548</v>
@@ -11822,7 +11822,7 @@
         <v>-0.659068576904275</v>
       </c>
       <c r="F357">
-        <v>-0.659068576904275</v>
+        <v>1.84560652580879</v>
       </c>
       <c r="G357">
         <v>-0.3214141697532792</v>
@@ -11854,7 +11854,7 @@
         <v>-0.8874951128106079</v>
       </c>
       <c r="F358">
-        <v>-0.8874951128106079</v>
+        <v>1.091554094250713</v>
       </c>
       <c r="G358">
         <v>-0.4851765556451544</v>
@@ -11886,7 +11886,7 @@
         <v>0.2528339763759768</v>
       </c>
       <c r="F359">
-        <v>0.2528339763759768</v>
+        <v>-0.7160350862610654</v>
       </c>
       <c r="G359">
         <v>-0.3897505531877969</v>
@@ -11918,7 +11918,7 @@
         <v>0.2119751048435309</v>
       </c>
       <c r="F360">
-        <v>0.2119751048435309</v>
+        <v>-0.4553425249845366</v>
       </c>
       <c r="G360">
         <v>-0.08618018799779428</v>
@@ -11950,7 +11950,7 @@
         <v>-0.8912044921563165</v>
       </c>
       <c r="F361">
-        <v>-0.8912044921563165</v>
+        <v>1.20282619624524</v>
       </c>
       <c r="G361">
         <v>-0.1927608209870291</v>
@@ -11982,7 +11982,7 @@
         <v>-0.6170691495590862</v>
       </c>
       <c r="F362">
-        <v>-0.6170691495590862</v>
+        <v>-0.7515263931597189</v>
       </c>
       <c r="G362">
         <v>-0.5150842688856564</v>
@@ -12014,7 +12014,7 @@
         <v>2.975620760677109</v>
       </c>
       <c r="F363">
-        <v>2.975620760677109</v>
+        <v>-0.01636883713970937</v>
       </c>
       <c r="G363">
         <v>0.2934127700684362</v>
@@ -12046,7 +12046,7 @@
         <v>2.456351992527797</v>
       </c>
       <c r="F364">
-        <v>2.456351992527797</v>
+        <v>-0.539922195472912</v>
       </c>
       <c r="G364">
         <v>0.8332112740168887</v>
@@ -12078,7 +12078,7 @@
         <v>-0.4775783885132328</v>
       </c>
       <c r="F365">
-        <v>-0.4775783885132328</v>
+        <v>-1.080408951537242</v>
       </c>
       <c r="G365">
         <v>-0.8538037034081638</v>
@@ -12110,7 +12110,7 @@
         <v>-0.6841201069891575</v>
       </c>
       <c r="F366">
-        <v>-0.6841201069891575</v>
+        <v>0.5544219342819823</v>
       </c>
       <c r="G366">
         <v>-0.4713464419853459</v>
@@ -12142,7 +12142,7 @@
         <v>1.142847787444562</v>
       </c>
       <c r="F367">
-        <v>1.142847787444562</v>
+        <v>-0.3794278216568227</v>
       </c>
       <c r="G367">
         <v>0.5689379790778077</v>
@@ -12174,7 +12174,7 @@
         <v>1.990224090791403</v>
       </c>
       <c r="F368">
-        <v>1.990224090791403</v>
+        <v>-0.5579582289685908</v>
       </c>
       <c r="G368">
         <v>2.100737094279803</v>
@@ -12206,7 +12206,7 @@
         <v>-0.4042259502887326</v>
       </c>
       <c r="F369">
-        <v>-0.4042259502887326</v>
+        <v>0.08533332196019311</v>
       </c>
       <c r="G369">
         <v>-0.2494846752278621</v>
@@ -12238,7 +12238,7 @@
         <v>-0.8889347285479789</v>
       </c>
       <c r="F370">
-        <v>-0.8889347285479789</v>
+        <v>0.290858461817415</v>
       </c>
       <c r="G370">
         <v>-1.045478764299755</v>
@@ -12270,7 +12270,7 @@
         <v>-0.9033852037472064</v>
       </c>
       <c r="F371">
-        <v>-0.9033852037472064</v>
+        <v>-0.9503494200377071</v>
       </c>
       <c r="G371">
         <v>-0.8254552428884457</v>
@@ -12302,7 +12302,7 @@
         <v>1.725822446669699</v>
       </c>
       <c r="F372">
-        <v>1.725822446669699</v>
+        <v>-0.3779409916525461</v>
       </c>
       <c r="G372">
         <v>0.6555902449779978</v>
@@ -12334,7 +12334,7 @@
         <v>1.464773279841743</v>
       </c>
       <c r="F373">
-        <v>1.464773279841743</v>
+        <v>-0.6089844628974871</v>
       </c>
       <c r="G373">
         <v>0.4388951516816172</v>
@@ -12366,7 +12366,7 @@
         <v>-0.9198086570329512</v>
       </c>
       <c r="F374">
-        <v>-0.9198086570329512</v>
+        <v>-0.7158230260780197</v>
       </c>
       <c r="G374">
         <v>-0.3029218167908623</v>
@@ -12398,7 +12398,7 @@
         <v>0.6614280982289631</v>
       </c>
       <c r="F375">
-        <v>0.6614280982289631</v>
+        <v>-0.2733957339804496</v>
       </c>
       <c r="G375">
         <v>-0.3704343114037326</v>
@@ -12430,7 +12430,7 @@
         <v>0.3938856498122025</v>
       </c>
       <c r="F376">
-        <v>0.3938856498122025</v>
+        <v>-0.6030983918154487</v>
       </c>
       <c r="G376">
         <v>-0.5644493323206345</v>
@@ -12462,7 +12462,7 @@
         <v>-0.9083494707766044</v>
       </c>
       <c r="F377">
-        <v>-0.9083494707766044</v>
+        <v>0.1697243971477075</v>
       </c>
       <c r="G377">
         <v>-0.6584913386211386</v>
@@ -12494,7 +12494,7 @@
         <v>1.924148346981299</v>
       </c>
       <c r="F378">
-        <v>1.924148346981299</v>
+        <v>-0.06193952422089844</v>
       </c>
       <c r="G378">
         <v>0.03136451986406885</v>
@@ -12526,7 +12526,7 @@
         <v>-0.5899956418792827</v>
       </c>
       <c r="F379">
-        <v>-0.5899956418792827</v>
+        <v>-1.047401861382052</v>
       </c>
       <c r="G379">
         <v>-0.9751821741053489</v>
@@ -12558,7 +12558,7 @@
         <v>-0.7918784009980206</v>
       </c>
       <c r="F380">
-        <v>-0.7918784009980206</v>
+        <v>-0.7896907282793857</v>
       </c>
       <c r="G380">
         <v>-0.92208194017772</v>
@@ -12590,7 +12590,7 @@
         <v>1.232882620660395</v>
       </c>
       <c r="F381">
-        <v>1.232882620660395</v>
+        <v>-0.7776555061157666</v>
       </c>
       <c r="G381">
         <v>0.5271072291586357</v>
@@ -12622,7 +12622,7 @@
         <v>-0.8964696251405765</v>
       </c>
       <c r="F382">
-        <v>-0.8964696251405765</v>
+        <v>-0.878731338574111</v>
       </c>
       <c r="G382">
         <v>-1.158778067449963</v>
@@ -12654,7 +12654,7 @@
         <v>-0.9050400920347015</v>
       </c>
       <c r="F383">
-        <v>-0.9050400920347015</v>
+        <v>-0.7486317716205753</v>
       </c>
       <c r="G383">
         <v>-0.9808415262677512</v>
@@ -12686,7 +12686,7 @@
         <v>-0.1678923459861595</v>
       </c>
       <c r="F384">
-        <v>-0.1678923459861595</v>
+        <v>-0.7385896535033066</v>
       </c>
       <c r="G384">
         <v>-0.4867477761665061</v>
@@ -12718,7 +12718,7 @@
         <v>0.1682253154438588</v>
       </c>
       <c r="F385">
-        <v>0.1682253154438588</v>
+        <v>-0.4532153876510389</v>
       </c>
       <c r="G385">
         <v>-0.5887784150818489</v>
@@ -12750,7 +12750,7 @@
         <v>0.2272120378692973</v>
       </c>
       <c r="F386">
-        <v>0.2272120378692973</v>
+        <v>-0.6581529179899038</v>
       </c>
       <c r="G386">
         <v>-0.3190222810638473</v>
@@ -12782,7 +12782,7 @@
         <v>-0.7671450738785841</v>
       </c>
       <c r="F387">
-        <v>-0.7671450738785841</v>
+        <v>-0.4594896522640669</v>
       </c>
       <c r="G387">
         <v>-0.5843614940180121</v>
@@ -12814,7 +12814,7 @@
         <v>0.6772847458963048</v>
       </c>
       <c r="F388">
-        <v>0.6772847458963048</v>
+        <v>-0.6434356927801712</v>
       </c>
       <c r="G388">
         <v>-0.2602244481209892</v>
@@ -12846,7 +12846,7 @@
         <v>-0.7813427572477673</v>
       </c>
       <c r="F389">
-        <v>-0.7813427572477673</v>
+        <v>-0.3493507226023894</v>
       </c>
       <c r="G389">
         <v>-0.2010632095693753</v>
@@ -12878,7 +12878,7 @@
         <v>0.1759735442985458</v>
       </c>
       <c r="F390">
-        <v>0.1759735442985458</v>
+        <v>-0.5707231790450005</v>
       </c>
       <c r="G390">
         <v>0.04399118860074944</v>
@@ -12910,7 +12910,7 @@
         <v>-0.8256774198098</v>
       </c>
       <c r="F391">
-        <v>-0.8256774198098</v>
+        <v>0.6342981616774245</v>
       </c>
       <c r="G391">
         <v>-1.210731156625998</v>
@@ -12942,7 +12942,7 @@
         <v>-0.8143186468115204</v>
       </c>
       <c r="F392">
-        <v>-0.8143186468115204</v>
+        <v>0.3609834581679819</v>
       </c>
       <c r="G392">
         <v>-0.9121916595051691</v>
@@ -12974,7 +12974,7 @@
         <v>0.4371843395044991</v>
       </c>
       <c r="F393">
-        <v>0.4371843395044991</v>
+        <v>-0.815722729727921</v>
       </c>
       <c r="G393">
         <v>1.824223461875803</v>
@@ -13006,7 +13006,7 @@
         <v>1.55872151823833</v>
       </c>
       <c r="F394">
-        <v>1.55872151823833</v>
+        <v>-0.3653147726166092</v>
       </c>
       <c r="G394">
         <v>0.446053269400274</v>
@@ -13038,7 +13038,7 @@
         <v>-0.6385883020519846</v>
       </c>
       <c r="F395">
-        <v>-0.6385883020519846</v>
+        <v>-0.874795732094933</v>
       </c>
       <c r="G395">
         <v>-0.8097645587346074</v>
@@ -13070,7 +13070,7 @@
         <v>1.532256976268943</v>
       </c>
       <c r="F396">
-        <v>1.532256976268943</v>
+        <v>-0.3730591651174339</v>
       </c>
       <c r="G396">
         <v>0.9297459304901569</v>
@@ -13102,7 +13102,7 @@
         <v>-0.7621780456045907</v>
       </c>
       <c r="F397">
-        <v>-0.7621780456045907</v>
+        <v>-0.7705375169120248</v>
       </c>
       <c r="G397">
         <v>-0.7705770337133132</v>
@@ -13134,7 +13134,7 @@
         <v>-0.8473559875156972</v>
       </c>
       <c r="F398">
-        <v>-0.8473559875156972</v>
+        <v>-0.5623594961225947</v>
       </c>
       <c r="G398">
         <v>-0.429924463512144</v>
@@ -13166,7 +13166,7 @@
         <v>-0.6712241660405255</v>
       </c>
       <c r="F399">
-        <v>-0.6712241660405255</v>
+        <v>-0.1508148109033958</v>
       </c>
       <c r="G399">
         <v>-0.6605940036644883</v>
@@ -13198,7 +13198,7 @@
         <v>1.10892388753479</v>
       </c>
       <c r="F400">
-        <v>1.10892388753479</v>
+        <v>-0.872377822559665</v>
       </c>
       <c r="G400">
         <v>0.6860263568190476</v>
@@ -13230,7 +13230,7 @@
         <v>1.125276272977719</v>
       </c>
       <c r="F401">
-        <v>1.125276272977719</v>
+        <v>-0.6305673203421208</v>
       </c>
       <c r="G401">
         <v>0.03473025294814366</v>
@@ -13262,7 +13262,7 @@
         <v>0.4229239532129658</v>
       </c>
       <c r="F402">
-        <v>0.4229239532129658</v>
+        <v>-0.8215327338349174</v>
       </c>
       <c r="G402">
         <v>-0.01892753403813757</v>
@@ -13294,7 +13294,7 @@
         <v>-0.828892449391907</v>
       </c>
       <c r="F403">
-        <v>-0.828892449391907</v>
+        <v>0.2262613298836203</v>
       </c>
       <c r="G403">
         <v>-0.5367990744295195</v>
@@ -13326,7 +13326,7 @@
         <v>-0.836200845194611</v>
       </c>
       <c r="F404">
-        <v>-0.836200845194611</v>
+        <v>0.3100041700916509</v>
       </c>
       <c r="G404">
         <v>-0.1414074480999509</v>
@@ -13358,7 +13358,7 @@
         <v>1.334197277234939</v>
       </c>
       <c r="F405">
-        <v>1.334197277234939</v>
+        <v>-0.5654922843006488</v>
       </c>
       <c r="G405">
         <v>0.1921797286946041</v>
@@ -13390,7 +13390,7 @@
         <v>-0.8082522649176234</v>
       </c>
       <c r="F406">
-        <v>-0.8082522649176234</v>
+        <v>-0.1048217512110648</v>
       </c>
       <c r="G406">
         <v>-0.8395768228709078</v>
@@ -13422,7 +13422,7 @@
         <v>1.591377747741369</v>
       </c>
       <c r="F407">
-        <v>1.591377747741369</v>
+        <v>0.1126165553875773</v>
       </c>
       <c r="G407">
         <v>-0.2552527652428339</v>
@@ -13454,7 +13454,7 @@
         <v>2.64714096565246</v>
       </c>
       <c r="F408">
-        <v>2.64714096565246</v>
+        <v>0.4441706333008586</v>
       </c>
       <c r="G408">
         <v>0.170600880589971</v>
@@ -13486,7 +13486,7 @@
         <v>-0.6426523082330764</v>
       </c>
       <c r="F409">
-        <v>-0.6426523082330764</v>
+        <v>0.8350853169490262</v>
       </c>
       <c r="G409">
         <v>-0.5951436634830269</v>
@@ -13518,7 +13518,7 @@
         <v>0.8295355107271239</v>
       </c>
       <c r="F410">
-        <v>0.8295355107271239</v>
+        <v>-0.2656377012127881</v>
       </c>
       <c r="G410">
         <v>0.02291511630179424</v>
@@ -13550,7 +13550,7 @@
         <v>-0.7696532506964942</v>
       </c>
       <c r="F411">
-        <v>-0.7696532506964942</v>
+        <v>1.422044925035845</v>
       </c>
       <c r="G411">
         <v>0.954349384161732</v>
@@ -13582,7 +13582,7 @@
         <v>0.576197864964853</v>
       </c>
       <c r="F412">
-        <v>0.576197864964853</v>
+        <v>-0.6336468934985842</v>
       </c>
       <c r="G412">
         <v>-0.4486852018823652</v>
@@ -13614,7 +13614,7 @@
         <v>-0.8767280095602342</v>
       </c>
       <c r="F413">
-        <v>-0.8767280095602342</v>
+        <v>1.02848277992438</v>
       </c>
       <c r="G413">
         <v>-0.7413105180139795</v>
@@ -13646,7 +13646,7 @@
         <v>1.399884083475348</v>
       </c>
       <c r="F414">
-        <v>1.399884083475348</v>
+        <v>-0.3768242755166047</v>
       </c>
       <c r="G414">
         <v>0.574631294036013</v>
@@ -13678,7 +13678,7 @@
         <v>-0.6592553885312107</v>
       </c>
       <c r="F415">
-        <v>-0.6592553885312107</v>
+        <v>0.2291323778889238</v>
       </c>
       <c r="G415">
         <v>0.08714598671935757</v>
@@ -13710,7 +13710,7 @@
         <v>2.091678177767481</v>
       </c>
       <c r="F416">
-        <v>2.091678177767481</v>
+        <v>-0.4844702199622429</v>
       </c>
       <c r="G416">
         <v>0.1238715353183552</v>
@@ -13742,7 +13742,7 @@
         <v>-0.7112290635246299</v>
       </c>
       <c r="F417">
-        <v>-0.7112290635246299</v>
+        <v>0.8927869866083121</v>
       </c>
       <c r="G417">
         <v>0.2244839431475797</v>
@@ -13774,7 +13774,7 @@
         <v>-0.9418249464334896</v>
       </c>
       <c r="F418">
-        <v>-0.9418249464334896</v>
+        <v>-0.369091406175126</v>
       </c>
       <c r="G418">
         <v>0.1686231599714797</v>
@@ -13806,7 +13806,7 @@
         <v>0.2641630357099974</v>
       </c>
       <c r="F419">
-        <v>0.2641630357099974</v>
+        <v>-0.6622600163047906</v>
       </c>
       <c r="G419">
         <v>-0.5221674745953473</v>
@@ -13838,7 +13838,7 @@
         <v>-0.9256864395135215</v>
       </c>
       <c r="F420">
-        <v>-0.9256864395135215</v>
+        <v>-1.043617194270582</v>
       </c>
       <c r="G420">
         <v>-0.5389189725963317</v>
@@ -13870,7 +13870,7 @@
         <v>0.3497855083685275</v>
       </c>
       <c r="F421">
-        <v>0.3497855083685275</v>
+        <v>-0.5425502717412092</v>
       </c>
       <c r="G421">
         <v>-0.03802935868803892</v>
@@ -13902,7 +13902,7 @@
         <v>-0.6275947876102448</v>
       </c>
       <c r="F422">
-        <v>-0.6275947876102448</v>
+        <v>2.76854167055057</v>
       </c>
       <c r="G422">
         <v>-0.589995336303645</v>
@@ -13934,7 +13934,7 @@
         <v>1.172328788593523</v>
       </c>
       <c r="F423">
-        <v>1.172328788593523</v>
+        <v>0.4158017274670652</v>
       </c>
       <c r="G423">
         <v>0.1075613870263934</v>
@@ -13966,7 +13966,7 @@
         <v>-0.7244984824761788</v>
       </c>
       <c r="F424">
-        <v>-0.7244984824761788</v>
+        <v>-0.6776215181668025</v>
       </c>
       <c r="G424">
         <v>0.6012189240536712</v>
@@ -13998,7 +13998,7 @@
         <v>1.778792055160165</v>
       </c>
       <c r="F425">
-        <v>1.778792055160165</v>
+        <v>-0.3089002102620093</v>
       </c>
       <c r="G425">
         <v>0.08416576783201532</v>
@@ -14030,7 +14030,7 @@
         <v>-0.7885253723065215</v>
       </c>
       <c r="F426">
-        <v>-0.7885253723065215</v>
+        <v>-0.5267836439947663</v>
       </c>
       <c r="G426">
         <v>-0.029246776992213</v>
@@ -14062,7 +14062,7 @@
         <v>0.9338915735583567</v>
       </c>
       <c r="F427">
-        <v>0.9338915735583567</v>
+        <v>1.104719880431453</v>
       </c>
       <c r="G427">
         <v>4.11313580475985</v>
@@ -14094,7 +14094,7 @@
         <v>1.312052316553037</v>
       </c>
       <c r="F428">
-        <v>1.312052316553037</v>
+        <v>1.633957937723928</v>
       </c>
       <c r="G428">
         <v>2.781569583468857</v>
@@ -14126,7 +14126,7 @@
         <v>-0.7265067979453279</v>
       </c>
       <c r="F429">
-        <v>-0.7265067979453279</v>
+        <v>-0.3877557017629386</v>
       </c>
       <c r="G429">
         <v>-0.02172011854769081</v>
@@ -14158,7 +14158,7 @@
         <v>-0.937427438040096</v>
       </c>
       <c r="F430">
-        <v>-0.937427438040096</v>
+        <v>1.09580215869367</v>
       </c>
       <c r="G430">
         <v>-0.8309765052389121</v>
@@ -14190,7 +14190,7 @@
         <v>-0.287704557993463</v>
       </c>
       <c r="F431">
-        <v>-0.287704557993463</v>
+        <v>-0.4710352025479753</v>
       </c>
       <c r="G431">
         <v>-0.5923348110088198</v>
@@ -14222,7 +14222,7 @@
         <v>-0.1428870237142711</v>
       </c>
       <c r="F432">
-        <v>-0.1428870237142711</v>
+        <v>-0.6598926995503089</v>
       </c>
       <c r="G432">
         <v>-0.6322709783050079</v>
@@ -14254,7 +14254,7 @@
         <v>-0.9479483931189848</v>
       </c>
       <c r="F433">
-        <v>-0.9479483931189848</v>
+        <v>0.5801074622273827</v>
       </c>
       <c r="G433">
         <v>-1.135445867664495</v>
@@ -14286,7 +14286,7 @@
         <v>0.8983538297027225</v>
       </c>
       <c r="F434">
-        <v>0.8983538297027225</v>
+        <v>1.918074507882822</v>
       </c>
       <c r="G434">
         <v>0.3175473308694625</v>
@@ -14318,7 +14318,7 @@
         <v>-0.70102150298232</v>
       </c>
       <c r="F435">
-        <v>-0.70102150298232</v>
+        <v>1.242889232534107</v>
       </c>
       <c r="G435">
         <v>-0.9155668729027534</v>
@@ -14350,7 +14350,7 @@
         <v>-0.7249236648143155</v>
       </c>
       <c r="F436">
-        <v>-0.7249236648143155</v>
+        <v>-0.1195415912709456</v>
       </c>
       <c r="G436">
         <v>-0.7276527941982646</v>
@@ -14382,7 +14382,7 @@
         <v>1.622215200247504</v>
       </c>
       <c r="F437">
-        <v>1.622215200247504</v>
+        <v>2.372422460216097</v>
       </c>
       <c r="G437">
         <v>0.4005843594657714</v>
@@ -14414,7 +14414,7 @@
         <v>0.3718063984974893</v>
       </c>
       <c r="F438">
-        <v>0.3718063984974893</v>
+        <v>-0.8804858199690618</v>
       </c>
       <c r="G438">
         <v>-0.364161914653155</v>
@@ -14446,7 +14446,7 @@
         <v>0.7677963947234984</v>
       </c>
       <c r="F439">
-        <v>0.7677963947234984</v>
+        <v>-0.8344783345273673</v>
       </c>
       <c r="G439">
         <v>-0.2297771476901534</v>
@@ -14478,7 +14478,7 @@
         <v>-0.8166212716471599</v>
       </c>
       <c r="F440">
-        <v>-0.8166212716471599</v>
+        <v>0.5554323750828024</v>
       </c>
       <c r="G440">
         <v>0.2802400403671737</v>
@@ -14510,7 +14510,7 @@
         <v>-0.8403954766729043</v>
       </c>
       <c r="F441">
-        <v>-0.8403954766729043</v>
+        <v>0.1532428238369892</v>
       </c>
       <c r="G441">
         <v>0.1693346767318315</v>
@@ -14542,7 +14542,7 @@
         <v>-0.6817577561984357</v>
       </c>
       <c r="F442">
-        <v>-0.6817577561984357</v>
+        <v>1.52136215323981</v>
       </c>
       <c r="G442">
         <v>-0.233673437721176</v>
@@ -14574,7 +14574,7 @@
         <v>1.940246194338815</v>
       </c>
       <c r="F443">
-        <v>1.940246194338815</v>
+        <v>-0.5507071878576764</v>
       </c>
       <c r="G443">
         <v>0.7120332665934382</v>
@@ -14606,7 +14606,7 @@
         <v>-0.6920834722923737</v>
       </c>
       <c r="F444">
-        <v>-0.6920834722923737</v>
+        <v>1.325936187183999</v>
       </c>
       <c r="G444">
         <v>0.1438343418373304</v>
@@ -14638,7 +14638,7 @@
         <v>1.638438790426639</v>
       </c>
       <c r="F445">
-        <v>1.638438790426639</v>
+        <v>-0.6677923196667315</v>
       </c>
       <c r="G445">
         <v>1.339486225050545</v>
@@ -14670,7 +14670,7 @@
         <v>-0.6287231982488983</v>
       </c>
       <c r="F446">
-        <v>-0.6287231982488983</v>
+        <v>-0.9449337749812826</v>
       </c>
       <c r="G446">
         <v>-0.5128844580150613</v>
@@ -14702,7 +14702,7 @@
         <v>-0.6806223174806192</v>
       </c>
       <c r="F447">
-        <v>-0.6806223174806192</v>
+        <v>-0.9221165193090732</v>
       </c>
       <c r="G447">
         <v>-0.6582673511931746</v>
@@ -14734,7 +14734,7 @@
         <v>1.701051927864709</v>
       </c>
       <c r="F448">
-        <v>1.701051927864709</v>
+        <v>-0.3759178609030344</v>
       </c>
       <c r="G448">
         <v>0.4210927082344448</v>
@@ -14766,7 +14766,7 @@
         <v>2.767291135581656</v>
       </c>
       <c r="F449">
-        <v>2.767291135581656</v>
+        <v>0.5016000863973022</v>
       </c>
       <c r="G449">
         <v>0.1870207178945005</v>
@@ -14798,7 +14798,7 @@
         <v>-0.621085275371013</v>
       </c>
       <c r="F450">
-        <v>-0.621085275371013</v>
+        <v>0.5474600117135547</v>
       </c>
       <c r="G450">
         <v>-0.5110373648316621</v>
@@ -14830,7 +14830,7 @@
         <v>-0.4107453265769687</v>
       </c>
       <c r="F451">
-        <v>-0.4107453265769687</v>
+        <v>-0.4767203268304883</v>
       </c>
       <c r="G451">
         <v>-0.4585236950594999</v>
@@ -14862,7 +14862,7 @@
         <v>0.854646996548198</v>
       </c>
       <c r="F452">
-        <v>0.854646996548198</v>
+        <v>-0.3821037477360313</v>
       </c>
       <c r="G452">
         <v>-0.3043038387784095</v>
@@ -14894,7 +14894,7 @@
         <v>1.84909485457237</v>
       </c>
       <c r="F453">
-        <v>1.84909485457237</v>
+        <v>-0.1932565555614249</v>
       </c>
       <c r="G453">
         <v>-0.2597496805577289</v>
@@ -14926,7 +14926,7 @@
         <v>-0.7777426766430511</v>
       </c>
       <c r="F454">
-        <v>-0.7777426766430511</v>
+        <v>0.5855472247068396</v>
       </c>
       <c r="G454">
         <v>-0.4758061930781513</v>
@@ -14958,7 +14958,7 @@
         <v>0.7624402253652685</v>
       </c>
       <c r="F455">
-        <v>0.7624402253652685</v>
+        <v>-0.44726079739154</v>
       </c>
       <c r="G455">
         <v>-0.1827732853639915</v>
@@ -14990,7 +14990,7 @@
         <v>0.3327420077619113</v>
       </c>
       <c r="F456">
-        <v>0.3327420077619113</v>
+        <v>-0.7800797257390591</v>
       </c>
       <c r="G456">
         <v>-0.485974104528158</v>
@@ -15022,7 +15022,7 @@
         <v>-0.6968998894072396</v>
       </c>
       <c r="F457">
-        <v>-0.6968998894072396</v>
+        <v>0.4438905879603134</v>
       </c>
       <c r="G457">
         <v>-0.1269729653183231</v>
@@ -15054,7 +15054,7 @@
         <v>-0.1417503072071101</v>
       </c>
       <c r="F458">
-        <v>-0.1417503072071101</v>
+        <v>-0.4088986462714038</v>
       </c>
       <c r="G458">
         <v>0.6243679759107833</v>
@@ -15086,7 +15086,7 @@
         <v>0.4076626566563673</v>
       </c>
       <c r="F459">
-        <v>0.4076626566563673</v>
+        <v>-0.4924695156030338</v>
       </c>
       <c r="G459">
         <v>0.3078062397146331</v>
@@ -15118,7 +15118,7 @@
         <v>-0.9057206402428676</v>
       </c>
       <c r="F460">
-        <v>-0.9057206402428676</v>
+        <v>-1.256453353431599</v>
       </c>
       <c r="G460">
         <v>-1.056574425947503</v>
@@ -15150,7 +15150,7 @@
         <v>-0.9112555340379086</v>
       </c>
       <c r="F461">
-        <v>-0.9112555340379086</v>
+        <v>-1.165863292464739</v>
       </c>
       <c r="G461">
         <v>-1.250602500247265</v>
@@ -15182,7 +15182,7 @@
         <v>0.01584165045809437</v>
       </c>
       <c r="F462">
-        <v>0.01584165045809437</v>
+        <v>1.739370025926393</v>
       </c>
       <c r="G462">
         <v>-0.6188826581839131</v>
@@ -15214,7 +15214,7 @@
         <v>-0.831354094433897</v>
       </c>
       <c r="F463">
-        <v>-0.831354094433897</v>
+        <v>1.886370574247426</v>
       </c>
       <c r="G463">
         <v>-0.9645617496555848</v>
@@ -15246,7 +15246,7 @@
         <v>-0.8091263927046216</v>
       </c>
       <c r="F464">
-        <v>-0.8091263927046216</v>
+        <v>2.144583294544568</v>
       </c>
       <c r="G464">
         <v>-0.8191332820074143</v>
@@ -15278,7 +15278,7 @@
         <v>0.2707050468196091</v>
       </c>
       <c r="F465">
-        <v>0.2707050468196091</v>
+        <v>2.020338867020131</v>
       </c>
       <c r="G465">
         <v>0.5326731823676275</v>
@@ -15310,7 +15310,7 @@
         <v>-0.8368793486613665</v>
       </c>
       <c r="F466">
-        <v>-0.8368793486613665</v>
+        <v>0.8091018268201815</v>
       </c>
       <c r="G466">
         <v>-0.4493694030039939</v>
@@ -15342,7 +15342,7 @@
         <v>-0.2028895635669637</v>
       </c>
       <c r="F467">
-        <v>-0.2028895635669637</v>
+        <v>-0.6405536201693491</v>
       </c>
       <c r="G467">
         <v>-0.7431897202473605</v>
@@ -15374,7 +15374,7 @@
         <v>-0.3655161439836305</v>
       </c>
       <c r="F468">
-        <v>-0.3655161439836305</v>
+        <v>-1.019227639127335</v>
       </c>
       <c r="G468">
         <v>-0.5110383492177497</v>
@@ -15406,7 +15406,7 @@
         <v>-0.8761120216935188</v>
       </c>
       <c r="F469">
-        <v>-0.8761120216935188</v>
+        <v>-0.1213563837988172</v>
       </c>
       <c r="G469">
         <v>-0.827259114160572</v>
@@ -15438,7 +15438,7 @@
         <v>0.1779762401151187</v>
       </c>
       <c r="F470">
-        <v>0.1779762401151187</v>
+        <v>0.5988396521667676</v>
       </c>
       <c r="G470">
         <v>0.215427622427364</v>
@@ -15470,7 +15470,7 @@
         <v>-0.7414393020475883</v>
       </c>
       <c r="F471">
-        <v>-0.7414393020475883</v>
+        <v>-0.9198591278372874</v>
       </c>
       <c r="G471">
         <v>-1.089138272926829</v>
@@ -15502,7 +15502,7 @@
         <v>-0.7348135020506491</v>
       </c>
       <c r="F472">
-        <v>-0.7348135020506491</v>
+        <v>-0.8484287190593066</v>
       </c>
       <c r="G472">
         <v>-1.059932560967489</v>
@@ -15534,7 +15534,7 @@
         <v>0.2621386240148255</v>
       </c>
       <c r="F473">
-        <v>0.2621386240148255</v>
+        <v>0.4568537939164203</v>
       </c>
       <c r="G473">
         <v>0.001239278380731904</v>
@@ -15566,7 +15566,7 @@
         <v>0.6357999012790471</v>
       </c>
       <c r="F474">
-        <v>0.6357999012790471</v>
+        <v>2.387419430498442</v>
       </c>
       <c r="G474">
         <v>0.1179395625182942</v>
@@ -15598,7 +15598,7 @@
         <v>-0.6467411490940081</v>
       </c>
       <c r="F475">
-        <v>-0.6467411490940081</v>
+        <v>0.02470187674592925</v>
       </c>
       <c r="G475">
         <v>-0.9942593867418141</v>
@@ -15630,7 +15630,7 @@
         <v>1.181626450867227</v>
       </c>
       <c r="F476">
-        <v>1.181626450867227</v>
+        <v>0.4061273385148136</v>
       </c>
       <c r="G476">
         <v>0.2179953671839139</v>
@@ -15662,7 +15662,7 @@
         <v>-0.7202846998052295</v>
       </c>
       <c r="F477">
-        <v>-0.7202846998052295</v>
+        <v>-0.02188094463280056</v>
       </c>
       <c r="G477">
         <v>-1.168386232497896</v>
@@ -15694,7 +15694,7 @@
         <v>0.3417886120513456</v>
       </c>
       <c r="F478">
-        <v>0.3417886120513456</v>
+        <v>-0.1811585113345706</v>
       </c>
       <c r="G478">
         <v>0.1441738852122003</v>
@@ -15726,7 +15726,7 @@
         <v>0.2200360145574595</v>
       </c>
       <c r="F479">
-        <v>0.2200360145574595</v>
+        <v>-0.5170207711344652</v>
       </c>
       <c r="G479">
         <v>0.2274888258270862</v>
@@ -15758,7 +15758,7 @@
         <v>-0.799524959581534</v>
       </c>
       <c r="F480">
-        <v>-0.799524959581534</v>
+        <v>-0.1063669198092111</v>
       </c>
       <c r="G480">
         <v>-0.8538136349724187</v>
@@ -15790,7 +15790,7 @@
         <v>-0.7999824061084989</v>
       </c>
       <c r="F481">
-        <v>-0.7999824061084989</v>
+        <v>-0.08353205044619348</v>
       </c>
       <c r="G481">
         <v>-0.5869871240159924</v>
@@ -15822,7 +15822,7 @@
         <v>1.508911762241192</v>
       </c>
       <c r="F482">
-        <v>1.508911762241192</v>
+        <v>-0.1299746669344223</v>
       </c>
       <c r="G482">
         <v>3.325566414389276</v>
@@ -15854,7 +15854,7 @@
         <v>0.9100661123734776</v>
       </c>
       <c r="F483">
-        <v>0.9100661123734776</v>
+        <v>0.1221214205817389</v>
       </c>
       <c r="G483">
         <v>3.732038219768821</v>
@@ -15886,7 +15886,7 @@
         <v>-0.6725447990201558</v>
       </c>
       <c r="F484">
-        <v>-0.6725447990201558</v>
+        <v>2.300494217795595</v>
       </c>
       <c r="G484">
         <v>0.2679282085421354</v>
@@ -15918,7 +15918,7 @@
         <v>-0.7479144917646546</v>
       </c>
       <c r="F485">
-        <v>-0.7479144917646546</v>
+        <v>1.106011668860486</v>
       </c>
       <c r="G485">
         <v>0.6562231699823687</v>
@@ -15950,7 +15950,7 @@
         <v>1.834643486424665</v>
       </c>
       <c r="F486">
-        <v>1.834643486424665</v>
+        <v>0.02381442195905531</v>
       </c>
       <c r="G486">
         <v>0.4827607486578326</v>
@@ -15982,7 +15982,7 @@
         <v>1.124178806023141</v>
       </c>
       <c r="F487">
-        <v>1.124178806023141</v>
+        <v>0.1981297032241713</v>
       </c>
       <c r="G487">
         <v>0.7811612553204957</v>
@@ -16014,7 +16014,7 @@
         <v>0.02852333863186996</v>
       </c>
       <c r="F488">
-        <v>0.02852333863186996</v>
+        <v>-0.08606533240296228</v>
       </c>
       <c r="G488">
         <v>-0.4288511313570738</v>
@@ -16046,7 +16046,7 @@
         <v>0.1953442945842311</v>
       </c>
       <c r="F489">
-        <v>0.1953442945842311</v>
+        <v>-0.5982596580324161</v>
       </c>
       <c r="G489">
         <v>-0.4203387033884087</v>
@@ -16078,7 +16078,7 @@
         <v>-0.9003408518279128</v>
       </c>
       <c r="F490">
-        <v>-0.9003408518279128</v>
+        <v>-0.8848978654935575</v>
       </c>
       <c r="G490">
         <v>-1.208594381293376</v>
@@ -16110,7 +16110,7 @@
         <v>-0.9032538373867431</v>
       </c>
       <c r="F491">
-        <v>-0.9032538373867431</v>
+        <v>-1.090672966575383</v>
       </c>
       <c r="G491">
         <v>-1.359351969550906</v>
@@ -16142,7 +16142,7 @@
         <v>-0.9014751257860333</v>
       </c>
       <c r="F492">
-        <v>-0.9014751257860333</v>
+        <v>-0.2422654635603251</v>
       </c>
       <c r="G492">
         <v>-1.000262642570585</v>
@@ -16174,7 +16174,7 @@
         <v>-0.8725992006437946</v>
       </c>
       <c r="F493">
-        <v>-0.8725992006437946</v>
+        <v>-0.2519311842645069</v>
       </c>
       <c r="G493">
         <v>-0.6621248143484531</v>
@@ -16206,7 +16206,7 @@
         <v>-0.3536250371671086</v>
       </c>
       <c r="F494">
-        <v>-0.3536250371671086</v>
+        <v>-0.8661998719392743</v>
       </c>
       <c r="G494">
         <v>1.469267775903697</v>
@@ -16238,7 +16238,7 @@
         <v>-0.1716400615849349</v>
       </c>
       <c r="F495">
-        <v>-0.1716400615849349</v>
+        <v>-0.5061654957741576</v>
       </c>
       <c r="G495">
         <v>2.559914524549949</v>
@@ -16270,7 +16270,7 @@
         <v>-0.1751388238778982</v>
       </c>
       <c r="F496">
-        <v>-0.1751388238778982</v>
+        <v>-0.04476269788404178</v>
       </c>
       <c r="G496">
         <v>-0.01285158281895107</v>
@@ -16302,7 +16302,7 @@
         <v>-0.7111986963919777</v>
       </c>
       <c r="F497">
-        <v>-0.7111986963919777</v>
+        <v>1.228981812814781</v>
       </c>
       <c r="G497">
         <v>0.967400439509182</v>
@@ -16334,7 +16334,7 @@
         <v>0.0186852918499834</v>
       </c>
       <c r="F498">
-        <v>0.0186852918499834</v>
+        <v>-0.4097099605822613</v>
       </c>
       <c r="G498">
         <v>-0.1377289117263118</v>
@@ -16366,7 +16366,7 @@
         <v>-0.8031597496308369</v>
       </c>
       <c r="F499">
-        <v>-0.8031597496308369</v>
+        <v>1.775710320058555</v>
       </c>
       <c r="G499">
         <v>0.03648054631099091</v>
@@ -16398,7 +16398,7 @@
         <v>-0.4586902156919295</v>
       </c>
       <c r="F500">
-        <v>-0.4586902156919295</v>
+        <v>-1.006588708117994</v>
       </c>
       <c r="G500">
         <v>-0.3628940529481816</v>
@@ -16430,7 +16430,7 @@
         <v>-0.9498863486985119</v>
       </c>
       <c r="F501">
-        <v>-0.9498863486985119</v>
+        <v>-0.6714930789029774</v>
       </c>
       <c r="G501">
         <v>-0.704937508912526</v>
@@ -16462,7 +16462,7 @@
         <v>-0.8969221554321017</v>
       </c>
       <c r="F502">
-        <v>-0.8969221554321017</v>
+        <v>-1.067775061405951</v>
       </c>
       <c r="G502">
         <v>-1.175006571149417</v>
@@ -16494,7 +16494,7 @@
         <v>0.02483055376888338</v>
       </c>
       <c r="F503">
-        <v>0.02483055376888338</v>
+        <v>-0.66931406601416</v>
       </c>
       <c r="G503">
         <v>1.217292066387865</v>
@@ -16526,7 +16526,7 @@
         <v>-0.9212572241435981</v>
       </c>
       <c r="F504">
-        <v>-0.9212572241435981</v>
+        <v>-0.3258067191191656</v>
       </c>
       <c r="G504">
         <v>-1.165641064060678</v>
@@ -16558,7 +16558,7 @@
         <v>0.1181317141926101</v>
       </c>
       <c r="F505">
-        <v>0.1181317141926101</v>
+        <v>-0.4245319361734028</v>
       </c>
       <c r="G505">
         <v>0.4904618285445986</v>
@@ -16590,7 +16590,7 @@
         <v>0.175485877475461</v>
       </c>
       <c r="F506">
-        <v>0.175485877475461</v>
+        <v>-0.7412847929447645</v>
       </c>
       <c r="G506">
         <v>-0.5212549324163395</v>
@@ -16622,7 +16622,7 @@
         <v>-0.9166103000352066</v>
       </c>
       <c r="F507">
-        <v>-0.9166103000352066</v>
+        <v>0.6797007480172594</v>
       </c>
       <c r="G507">
         <v>-0.1631082248138645</v>
@@ -16654,7 +16654,7 @@
         <v>-0.3569550202060972</v>
       </c>
       <c r="F508">
-        <v>-0.3569550202060972</v>
+        <v>-0.6496605228273526</v>
       </c>
       <c r="G508">
         <v>-0.4898587534536966</v>
@@ -16686,7 +16686,7 @@
         <v>-0.5605526605540752</v>
       </c>
       <c r="F509">
-        <v>-0.5605526605540752</v>
+        <v>-0.07992957823735078</v>
       </c>
       <c r="G509">
         <v>0.3036491036460967</v>
@@ -16718,7 +16718,7 @@
         <v>-0.8924333832116099</v>
       </c>
       <c r="F510">
-        <v>-0.8924333832116099</v>
+        <v>-1.07997189806391</v>
       </c>
       <c r="G510">
         <v>-0.2509987263022759</v>
@@ -16750,7 +16750,7 @@
         <v>-0.9370379224664428</v>
       </c>
       <c r="F511">
-        <v>-0.9370379224664428</v>
+        <v>-0.663972690561288</v>
       </c>
       <c r="G511">
         <v>-0.590159730972873</v>
@@ -16782,7 +16782,7 @@
         <v>-0.2378088887731259</v>
       </c>
       <c r="F512">
-        <v>-0.2378088887731259</v>
+        <v>-0.9454682852499707</v>
       </c>
       <c r="G512">
         <v>1.244319050862696</v>
@@ -16814,7 +16814,7 @@
         <v>-0.2872626428695677</v>
       </c>
       <c r="F513">
-        <v>-0.2872626428695677</v>
+        <v>-1.072686684677655</v>
       </c>
       <c r="G513">
         <v>0.6333726037540344</v>
@@ -16846,7 +16846,7 @@
         <v>-0.8706102458019523</v>
       </c>
       <c r="F514">
-        <v>-0.8706102458019523</v>
+        <v>-0.9678405711098961</v>
       </c>
       <c r="G514">
         <v>-1.020624905846476</v>
@@ -16878,7 +16878,7 @@
         <v>-0.8190260664762549</v>
       </c>
       <c r="F515">
-        <v>-0.8190260664762549</v>
+        <v>0.3356267439334371</v>
       </c>
       <c r="G515">
         <v>-1.15733157934742</v>
@@ -16910,7 +16910,7 @@
         <v>0.7731813185264268</v>
       </c>
       <c r="F516">
-        <v>0.7731813185264268</v>
+        <v>-0.3514397275758098</v>
       </c>
       <c r="G516">
         <v>-0.3030085003640856</v>
@@ -16942,7 +16942,7 @@
         <v>-0.7020963833865556</v>
       </c>
       <c r="F517">
-        <v>-0.7020963833865556</v>
+        <v>-0.8817327730284705</v>
       </c>
       <c r="G517">
         <v>-0.9926687846172303</v>
@@ -16974,7 +16974,7 @@
         <v>1.056282350756724</v>
       </c>
       <c r="F518">
-        <v>1.056282350756724</v>
+        <v>-0.4034585277786396</v>
       </c>
       <c r="G518">
         <v>0.2066030067793853</v>
@@ -17006,7 +17006,7 @@
         <v>-0.5587911187568899</v>
       </c>
       <c r="F519">
-        <v>-0.5587911187568899</v>
+        <v>-0.5736330244342269</v>
       </c>
       <c r="G519">
         <v>-0.831593953295634</v>
@@ -17038,7 +17038,7 @@
         <v>-0.8515229760739462</v>
       </c>
       <c r="F520">
-        <v>-0.8515229760739462</v>
+        <v>1.002598490244929</v>
       </c>
       <c r="G520">
         <v>-0.8713679305662581</v>
@@ -17070,7 +17070,7 @@
         <v>0.9827610119908987</v>
       </c>
       <c r="F521">
-        <v>0.9827610119908987</v>
+        <v>-0.3447037837334914</v>
       </c>
       <c r="G521">
         <v>0.1525475223322165</v>
@@ -17102,7 +17102,7 @@
         <v>1.240683809684539</v>
       </c>
       <c r="F522">
-        <v>1.240683809684539</v>
+        <v>0.4692224658052033</v>
       </c>
       <c r="G522">
         <v>1.252429143295392</v>
@@ -17134,7 +17134,7 @@
         <v>-0.758431818392132</v>
       </c>
       <c r="F523">
-        <v>-0.758431818392132</v>
+        <v>-0.5483523742905659</v>
       </c>
       <c r="G523">
         <v>0.4590120489878602</v>
@@ -17166,7 +17166,7 @@
         <v>0.9050521300680717</v>
       </c>
       <c r="F524">
-        <v>0.9050521300680717</v>
+        <v>-0.5747370842069449</v>
       </c>
       <c r="G524">
         <v>-0.2110322578263149</v>
@@ -17198,7 +17198,7 @@
         <v>-0.8720223838715668</v>
       </c>
       <c r="F525">
-        <v>-0.8720223838715668</v>
+        <v>0.1354424130172787</v>
       </c>
       <c r="G525">
         <v>-1.003890729009653</v>
@@ -17230,7 +17230,7 @@
         <v>0.1716292967142217</v>
       </c>
       <c r="F526">
-        <v>0.1716292967142217</v>
+        <v>-0.9006919752141166</v>
       </c>
       <c r="G526">
         <v>-0.7063765742734051</v>
@@ -17262,7 +17262,7 @@
         <v>-0.834889270014558</v>
       </c>
       <c r="F527">
-        <v>-0.834889270014558</v>
+        <v>-0.3590037731534643</v>
       </c>
       <c r="G527">
         <v>-0.5663631488003903</v>
@@ -17294,7 +17294,7 @@
         <v>0.2070458275600142</v>
       </c>
       <c r="F528">
-        <v>0.2070458275600142</v>
+        <v>0.2342243873353916</v>
       </c>
       <c r="G528">
         <v>1.464359669541562</v>
@@ -17326,7 +17326,7 @@
         <v>-0.8003106295275813</v>
       </c>
       <c r="F529">
-        <v>-0.8003106295275813</v>
+        <v>-0.04622487027142202</v>
       </c>
       <c r="G529">
         <v>-0.8371935756627721</v>
@@ -17358,7 +17358,7 @@
         <v>-0.7732053263912106</v>
       </c>
       <c r="F530">
-        <v>-0.7732053263912106</v>
+        <v>0.3639938631212044</v>
       </c>
       <c r="G530">
         <v>-0.6894608721050491</v>
@@ -17390,7 +17390,7 @@
         <v>-0.6705470798697375</v>
       </c>
       <c r="F531">
-        <v>-0.6705470798697375</v>
+        <v>-0.072044911310767</v>
       </c>
       <c r="G531">
         <v>-0.7080322228732221</v>
@@ -17422,7 +17422,7 @@
         <v>0.07185282617442781</v>
       </c>
       <c r="F532">
-        <v>0.07185282617442781</v>
+        <v>-0.7003242431411275</v>
       </c>
       <c r="G532">
         <v>-0.1210304342121753</v>
@@ -17454,7 +17454,7 @@
         <v>1.197598300475188</v>
       </c>
       <c r="F533">
-        <v>1.197598300475188</v>
+        <v>-0.4702294509675846</v>
       </c>
       <c r="G533">
         <v>0.8753633059496903</v>
@@ -17486,7 +17486,7 @@
         <v>-0.4283596074055018</v>
       </c>
       <c r="F534">
-        <v>-0.4283596074055018</v>
+        <v>-0.4309467441599654</v>
       </c>
       <c r="G534">
         <v>-0.6426742536603859</v>
@@ -17518,7 +17518,7 @@
         <v>-0.864242785273453</v>
       </c>
       <c r="F535">
-        <v>-0.864242785273453</v>
+        <v>1.710783799970658</v>
       </c>
       <c r="G535">
         <v>-0.476466472091473</v>
@@ -17550,7 +17550,7 @@
         <v>-0.03205119570235099</v>
       </c>
       <c r="F536">
-        <v>-0.03205119570235099</v>
+        <v>-0.3085291824759688</v>
       </c>
       <c r="G536">
         <v>0.4049119895518234</v>
@@ -17582,7 +17582,7 @@
         <v>-0.7787539609429206</v>
       </c>
       <c r="F537">
-        <v>-0.7787539609429206</v>
+        <v>1.507822310726402</v>
       </c>
       <c r="G537">
         <v>0.3216315742993136</v>
@@ -17614,7 +17614,7 @@
         <v>0.08374127737404438</v>
       </c>
       <c r="F538">
-        <v>0.08374127737404438</v>
+        <v>-0.8423959039334713</v>
       </c>
       <c r="G538">
         <v>0.8349706037792233</v>
@@ -17646,7 +17646,7 @@
         <v>-0.9188220823458799</v>
       </c>
       <c r="F539">
-        <v>-0.9188220823458799</v>
+        <v>0.8380159967327431</v>
       </c>
       <c r="G539">
         <v>-0.9275678407791742</v>
@@ -17678,7 +17678,7 @@
         <v>-0.1384296978807471</v>
       </c>
       <c r="F540">
-        <v>-0.1384296978807471</v>
+        <v>-0.7528535653908984</v>
       </c>
       <c r="G540">
         <v>-0.7411702319070669</v>
@@ -17710,7 +17710,7 @@
         <v>-0.8883402519246471</v>
       </c>
       <c r="F541">
-        <v>-0.8883402519246471</v>
+        <v>0.5019142993714955</v>
       </c>
       <c r="G541">
         <v>-0.6104586360635567</v>
@@ -17742,7 +17742,7 @@
         <v>-0.299932064828326</v>
       </c>
       <c r="F542">
-        <v>-0.299932064828326</v>
+        <v>-0.9199265812731383</v>
       </c>
       <c r="G542">
         <v>-0.8638172521904314</v>
@@ -17774,7 +17774,7 @@
         <v>-0.8660229686561006</v>
       </c>
       <c r="F543">
-        <v>-0.8660229686561006</v>
+        <v>0.3190280533754911</v>
       </c>
       <c r="G543">
         <v>-1.221461474083016</v>
@@ -17806,7 +17806,7 @@
         <v>0.3984247005189914</v>
       </c>
       <c r="F544">
-        <v>0.3984247005189914</v>
+        <v>-0.4041216323524316</v>
       </c>
       <c r="G544">
         <v>-0.1227871268857287</v>
@@ -17838,7 +17838,7 @@
         <v>0.1105191869350307</v>
       </c>
       <c r="F545">
-        <v>0.1105191869350307</v>
+        <v>-0.1198684003564894</v>
       </c>
       <c r="G545">
         <v>-0.277598810536927</v>
@@ -17870,7 +17870,7 @@
         <v>-0.7827940637858223</v>
       </c>
       <c r="F546">
-        <v>-0.7827940637858223</v>
+        <v>-1.017078125681465</v>
       </c>
       <c r="G546">
         <v>-0.5739770667088738</v>
@@ -17902,7 +17902,7 @@
         <v>1.50893168781749</v>
       </c>
       <c r="F547">
-        <v>1.50893168781749</v>
+        <v>-0.2291452020180119</v>
       </c>
       <c r="G547">
         <v>0.4415375419637915</v>
@@ -17934,7 +17934,7 @@
         <v>1.138307361398994</v>
       </c>
       <c r="F548">
-        <v>1.138307361398994</v>
+        <v>-0.269772803489404</v>
       </c>
       <c r="G548">
         <v>-0.4793588186875008</v>
@@ -17966,7 +17966,7 @@
         <v>0.8861758301628753</v>
       </c>
       <c r="F549">
-        <v>0.8861758301628753</v>
+        <v>0.2823270410619044</v>
       </c>
       <c r="G549">
         <v>-0.008611180741706794</v>
@@ -17998,7 +17998,7 @@
         <v>0.501832402762078</v>
       </c>
       <c r="F550">
-        <v>0.501832402762078</v>
+        <v>0.7696507431130372</v>
       </c>
       <c r="G550">
         <v>-0.5951370375771506</v>
@@ -18030,7 +18030,7 @@
         <v>-0.4342919411808404</v>
       </c>
       <c r="F551">
-        <v>-0.4342919411808404</v>
+        <v>-0.9953336826291399</v>
       </c>
       <c r="G551">
         <v>-0.3893585076193105</v>
@@ -18062,7 +18062,7 @@
         <v>-0.3744013807661727</v>
       </c>
       <c r="F552">
-        <v>-0.3744013807661727</v>
+        <v>-0.5641016556265714</v>
       </c>
       <c r="G552">
         <v>-0.585140839474604</v>
@@ -18094,7 +18094,7 @@
         <v>0.734498638352565</v>
       </c>
       <c r="F553">
-        <v>0.734498638352565</v>
+        <v>-0.8039492303870375</v>
       </c>
       <c r="G553">
         <v>-0.2523841624811309</v>
@@ -18126,7 +18126,7 @@
         <v>0.9720723888484586</v>
       </c>
       <c r="F554">
-        <v>0.9720723888484586</v>
+        <v>-0.6731481657536832</v>
       </c>
       <c r="G554">
         <v>0.4567364345697322</v>
@@ -18158,7 +18158,7 @@
         <v>-0.8401339069780421</v>
       </c>
       <c r="F555">
-        <v>-0.8401339069780421</v>
+        <v>-0.9596592165725751</v>
       </c>
       <c r="G555">
         <v>-0.4516461152322906</v>
@@ -18190,7 +18190,7 @@
         <v>-0.7704418583897992</v>
       </c>
       <c r="F556">
-        <v>-0.7704418583897992</v>
+        <v>-0.1010039487242801</v>
       </c>
       <c r="G556">
         <v>-0.5281588499896082</v>
@@ -18222,7 +18222,7 @@
         <v>1.12413661321459</v>
       </c>
       <c r="F557">
-        <v>1.12413661321459</v>
+        <v>-0.3639658605454501</v>
       </c>
       <c r="G557">
         <v>-0.1264690773663464</v>
@@ -18254,7 +18254,7 @@
         <v>0.1521121203386873</v>
       </c>
       <c r="F558">
-        <v>0.1521121203386873</v>
+        <v>-0.7080509423213325</v>
       </c>
       <c r="G558">
         <v>-0.6929665844185443</v>
@@ -18286,7 +18286,7 @@
         <v>-0.7563367647052724</v>
       </c>
       <c r="F559">
-        <v>-0.7563367647052724</v>
+        <v>0.9178617431250029</v>
       </c>
       <c r="G559">
         <v>-0.5065852650996144</v>
@@ -18318,7 +18318,7 @@
         <v>-0.1975485411746304</v>
       </c>
       <c r="F560">
-        <v>-0.1975485411746304</v>
+        <v>0.2031298967484187</v>
       </c>
       <c r="G560">
         <v>-0.6012603398501101</v>
@@ -18350,7 +18350,7 @@
         <v>-0.833334465712762</v>
       </c>
       <c r="F561">
-        <v>-0.833334465712762</v>
+        <v>0.8803543566583856</v>
       </c>
       <c r="G561">
         <v>0.2937867252972697</v>
@@ -18382,7 +18382,7 @@
         <v>0.07334934072044867</v>
       </c>
       <c r="F562">
-        <v>0.07334934072044867</v>
+        <v>0.02115706657047692</v>
       </c>
       <c r="G562">
         <v>0.566789639464488</v>
@@ -18414,7 +18414,7 @@
         <v>-0.3556330447626932</v>
       </c>
       <c r="F563">
-        <v>-0.3556330447626932</v>
+        <v>-0.7362195167629068</v>
       </c>
       <c r="G563">
         <v>-0.7810017145960308</v>
@@ -18446,7 +18446,7 @@
         <v>-0.9103203781458625</v>
       </c>
       <c r="F564">
-        <v>-0.9103203781458625</v>
+        <v>-0.8424678807211904</v>
       </c>
       <c r="G564">
         <v>-0.8080931842444765</v>
@@ -18478,7 +18478,7 @@
         <v>-0.935579321838004</v>
       </c>
       <c r="F565">
-        <v>-0.935579321838004</v>
+        <v>-1.204786232052049</v>
       </c>
       <c r="G565">
         <v>-0.4325346997120247</v>
@@ -18510,7 +18510,7 @@
         <v>0.06939572405557337</v>
       </c>
       <c r="F566">
-        <v>0.06939572405557337</v>
+        <v>-0.7004768522563142</v>
       </c>
       <c r="G566">
         <v>-0.3696215948118182</v>
@@ -18542,7 +18542,7 @@
         <v>-0.7748907089555984</v>
       </c>
       <c r="F567">
-        <v>-0.7748907089555984</v>
+        <v>0.8259030633984445</v>
       </c>
       <c r="G567">
         <v>-0.7404673950825693</v>
@@ -18574,7 +18574,7 @@
         <v>0.1220052152754011</v>
       </c>
       <c r="F568">
-        <v>0.1220052152754011</v>
+        <v>-0.1975863149639763</v>
       </c>
       <c r="G568">
         <v>-0.2516092561647479</v>
@@ -18606,7 +18606,7 @@
         <v>-0.06804069574364979</v>
       </c>
       <c r="F569">
-        <v>-0.06804069574364979</v>
+        <v>-0.1854541129727043</v>
       </c>
       <c r="G569">
         <v>-0.797165482914253</v>
@@ -18638,7 +18638,7 @@
         <v>-0.7282240542826399</v>
       </c>
       <c r="F570">
-        <v>-0.7282240542826399</v>
+        <v>1.017178189857223</v>
       </c>
       <c r="G570">
         <v>-0.9898893020647159</v>
@@ -18670,7 +18670,7 @@
         <v>0.7147658453133534</v>
       </c>
       <c r="F571">
-        <v>0.7147658453133534</v>
+        <v>-0.5921847689384061</v>
       </c>
       <c r="G571">
         <v>-0.4321702259773221</v>
@@ -18702,7 +18702,7 @@
         <v>-0.7974671938638745</v>
       </c>
       <c r="F572">
-        <v>-0.7974671938638745</v>
+        <v>-1.201887381029743</v>
       </c>
       <c r="G572">
         <v>-0.7712087609762629</v>
@@ -18734,7 +18734,7 @@
         <v>0.8806181312915224</v>
       </c>
       <c r="F573">
-        <v>0.8806181312915224</v>
+        <v>-0.2721467155932057</v>
       </c>
       <c r="G573">
         <v>-0.52860411675075</v>
@@ -18766,7 +18766,7 @@
         <v>-0.7960466341075764</v>
       </c>
       <c r="F574">
-        <v>-0.7960466341075764</v>
+        <v>-1.173045756489699</v>
       </c>
       <c r="G574">
         <v>-1.207265679164784</v>
@@ -18798,7 +18798,7 @@
         <v>-0.7297290095841004</v>
       </c>
       <c r="F575">
-        <v>-0.7297290095841004</v>
+        <v>-0.8376396208496739</v>
       </c>
       <c r="G575">
         <v>0.766362748452638</v>
@@ -18830,7 +18830,7 @@
         <v>-0.7026283330182871</v>
       </c>
       <c r="F576">
-        <v>-0.7026283330182871</v>
+        <v>-0.686871655073103</v>
       </c>
       <c r="G576">
         <v>0.07198817833918346</v>
@@ -18862,7 +18862,7 @@
         <v>1.51871812990404</v>
       </c>
       <c r="F577">
-        <v>1.51871812990404</v>
+        <v>-0.4983811631768211</v>
       </c>
       <c r="G577">
         <v>0.0333663105059868</v>
@@ -18894,7 +18894,7 @@
         <v>2.120903225721823</v>
       </c>
       <c r="F578">
-        <v>2.120903225721823</v>
+        <v>0.2661310433754166</v>
       </c>
       <c r="G578">
         <v>1.158342915855417</v>
@@ -18926,7 +18926,7 @@
         <v>-0.6170990971912401</v>
       </c>
       <c r="F579">
-        <v>-0.6170990971912401</v>
+        <v>-0.6465981520085996</v>
       </c>
       <c r="G579">
         <v>-0.990041104215469</v>
@@ -18958,7 +18958,7 @@
         <v>0.5160715992158893</v>
       </c>
       <c r="F580">
-        <v>0.5160715992158893</v>
+        <v>-0.3498931147353228</v>
       </c>
       <c r="G580">
         <v>0.2495332699142278</v>
@@ -18990,7 +18990,7 @@
         <v>0.3661230206159456</v>
       </c>
       <c r="F581">
-        <v>0.3661230206159456</v>
+        <v>0.1304096038520817</v>
       </c>
       <c r="G581">
         <v>0.4572791120391862</v>
@@ -19022,7 +19022,7 @@
         <v>-0.4666700276238344</v>
       </c>
       <c r="F582">
-        <v>-0.4666700276238344</v>
+        <v>-0.7041583524794902</v>
       </c>
       <c r="G582">
         <v>-0.6370122079923178</v>
@@ -19054,7 +19054,7 @@
         <v>-0.8648186440179176</v>
       </c>
       <c r="F583">
-        <v>-0.8648186440179176</v>
+        <v>1.21633798418895</v>
       </c>
       <c r="G583">
         <v>-0.7448176530617918</v>
@@ -19086,7 +19086,7 @@
         <v>1.010518792291601</v>
       </c>
       <c r="F584">
-        <v>1.010518792291601</v>
+        <v>-0.4469272976442524</v>
       </c>
       <c r="G584">
         <v>-0.2822840286305485</v>
@@ -19118,7 +19118,7 @@
         <v>-0.8525523175964539</v>
       </c>
       <c r="F585">
-        <v>-0.8525523175964539</v>
+        <v>0.7978937974764047</v>
       </c>
       <c r="G585">
         <v>-0.6414334127758575</v>
@@ -19150,7 +19150,7 @@
         <v>0.5749987027528886</v>
       </c>
       <c r="F586">
-        <v>0.5749987027528886</v>
+        <v>-0.6671095237264937</v>
       </c>
       <c r="G586">
         <v>-0.05389988182297738</v>
@@ -19182,7 +19182,7 @@
         <v>-0.9352213690376278</v>
       </c>
       <c r="F587">
-        <v>-0.9352213690376278</v>
+        <v>2.130085600840198</v>
       </c>
       <c r="G587">
         <v>-0.959793305610087</v>
@@ -19214,7 +19214,7 @@
         <v>0.6355661226357832</v>
       </c>
       <c r="F588">
-        <v>0.6355661226357832</v>
+        <v>-0.2662287270168204</v>
       </c>
       <c r="G588">
         <v>-0.413019964691354</v>
@@ -19246,7 +19246,7 @@
         <v>-0.8884141623498159</v>
       </c>
       <c r="F589">
-        <v>-0.8884141623498159</v>
+        <v>1.640256151712694</v>
       </c>
       <c r="G589">
         <v>0.1711759177386744</v>
@@ -19278,7 +19278,7 @@
         <v>0.3572545876848288</v>
       </c>
       <c r="F590">
-        <v>0.3572545876848288</v>
+        <v>-0.6013529076428917</v>
       </c>
       <c r="G590">
         <v>-0.01864879482491135</v>
@@ -19310,7 +19310,7 @@
         <v>-0.8037096570662682</v>
       </c>
       <c r="F591">
-        <v>-0.8037096570662682</v>
+        <v>-1.068872198702691</v>
       </c>
       <c r="G591">
         <v>-0.8106388416642528</v>
@@ -19342,7 +19342,7 @@
         <v>0.9938234160964676</v>
       </c>
       <c r="F592">
-        <v>0.9938234160964676</v>
+        <v>-0.4044371957887496</v>
       </c>
       <c r="G592">
         <v>2.796540376960678</v>
@@ -19374,7 +19374,7 @@
         <v>0.7057366498949154</v>
       </c>
       <c r="F593">
-        <v>0.7057366498949154</v>
+        <v>0.07521658412957699</v>
       </c>
       <c r="G593">
         <v>2.771230003366379</v>
@@ -19406,7 +19406,7 @@
         <v>-0.7193254169004224</v>
       </c>
       <c r="F594">
-        <v>-0.7193254169004224</v>
+        <v>-0.3072660720905711</v>
       </c>
       <c r="G594">
         <v>-0.9538714103498075</v>
@@ -19438,7 +19438,7 @@
         <v>-0.7606634988004141</v>
       </c>
       <c r="F595">
-        <v>-0.7606634988004141</v>
+        <v>-0.7870788118607163</v>
       </c>
       <c r="G595">
         <v>-0.920806182554493</v>
@@ -19470,7 +19470,7 @@
         <v>-0.8326670084332606</v>
       </c>
       <c r="F596">
-        <v>-0.8326670084332606</v>
+        <v>-1.29600482063388</v>
       </c>
       <c r="G596">
         <v>-1.077821098014009</v>
@@ -19502,7 +19502,7 @@
         <v>0.8606636458528693</v>
       </c>
       <c r="F597">
-        <v>0.8606636458528693</v>
+        <v>0.01529921670841651</v>
       </c>
       <c r="G597">
         <v>0.7503172091790872</v>
@@ -19534,7 +19534,7 @@
         <v>1.551279061396865</v>
       </c>
       <c r="F598">
-        <v>1.551279061396865</v>
+        <v>-0.2963489868714469</v>
       </c>
       <c r="G598">
         <v>-0.1526955495116306</v>
@@ -19566,7 +19566,7 @@
         <v>-0.6692712357227408</v>
       </c>
       <c r="F599">
-        <v>-0.6692712357227408</v>
+        <v>0.7137809247873859</v>
       </c>
       <c r="G599">
         <v>-0.9804980159173009</v>
@@ -19598,7 +19598,7 @@
         <v>-0.1242767011379651</v>
       </c>
       <c r="F600">
-        <v>-0.1242767011379651</v>
+        <v>-0.8881405430375217</v>
       </c>
       <c r="G600">
         <v>-0.219363700260873</v>
@@ -19630,7 +19630,7 @@
         <v>0.2204183038666669</v>
       </c>
       <c r="F601">
-        <v>0.2204183038666669</v>
+        <v>-0.7183212071505595</v>
       </c>
       <c r="G601">
         <v>-0.5639917936643279</v>
@@ -19662,7 +19662,7 @@
         <v>-0.462854938190529</v>
       </c>
       <c r="F602">
-        <v>-0.462854938190529</v>
+        <v>0.8605472476269581</v>
       </c>
       <c r="G602">
         <v>-0.6168506056600823</v>
@@ -19694,7 +19694,7 @@
         <v>-0.9086594795476626</v>
       </c>
       <c r="F603">
-        <v>-0.9086594795476626</v>
+        <v>0.01822021883367096</v>
       </c>
       <c r="G603">
         <v>-1.007208366741864</v>
@@ -19726,7 +19726,7 @@
         <v>0.05650987137724493</v>
       </c>
       <c r="F604">
-        <v>0.05650987137724493</v>
+        <v>-0.6293203616495905</v>
       </c>
       <c r="G604">
         <v>-0.3414607905957345</v>
@@ -19758,7 +19758,7 @@
         <v>-0.9145976083970039</v>
       </c>
       <c r="F605">
-        <v>-0.9145976083970039</v>
+        <v>-1.188346052633958</v>
       </c>
       <c r="G605">
         <v>-0.6188859412418056</v>
@@ -19790,7 +19790,7 @@
         <v>0.3758040562908116</v>
       </c>
       <c r="F606">
-        <v>0.3758040562908116</v>
+        <v>-0.1000471962624897</v>
       </c>
       <c r="G606">
         <v>0.208661470163533</v>
@@ -19822,7 +19822,7 @@
         <v>-0.7479107758338808</v>
       </c>
       <c r="F607">
-        <v>-0.7479107758338808</v>
+        <v>-0.4707991372438154</v>
       </c>
       <c r="G607">
         <v>-0.7295513477603462</v>
@@ -19854,7 +19854,7 @@
         <v>-0.6406148475704123</v>
       </c>
       <c r="F608">
-        <v>-0.6406148475704123</v>
+        <v>-0.9487827439996598</v>
       </c>
       <c r="G608">
         <v>-0.1794960379888969</v>
@@ -19886,7 +19886,7 @@
         <v>3.911434291250674</v>
       </c>
       <c r="F609">
-        <v>3.911434291250674</v>
+        <v>0.4921284519810086</v>
       </c>
       <c r="G609">
         <v>0.7108797094599608</v>
@@ -19918,7 +19918,7 @@
         <v>2.314120940910381</v>
       </c>
       <c r="F610">
-        <v>2.314120940910381</v>
+        <v>0.7658029021611308</v>
       </c>
       <c r="G610">
         <v>0.2005484346078646</v>
@@ -19950,7 +19950,7 @@
         <v>-0.568446620659267</v>
       </c>
       <c r="F611">
-        <v>-0.568446620659267</v>
+        <v>-0.05088237642646582</v>
       </c>
       <c r="G611">
         <v>1.415048439114631</v>
@@ -19982,7 +19982,7 @@
         <v>2.462345872523084</v>
       </c>
       <c r="F612">
-        <v>2.462345872523084</v>
+        <v>0.02013244959012872</v>
       </c>
       <c r="G612">
         <v>0.2489028464800539</v>
@@ -20014,7 +20014,7 @@
         <v>2.55762756745621</v>
       </c>
       <c r="F613">
-        <v>2.55762756745621</v>
+        <v>-0.4527999163804018</v>
       </c>
       <c r="G613">
         <v>0.09188118823304472</v>
@@ -20046,7 +20046,7 @@
         <v>-0.8004527710246864</v>
       </c>
       <c r="F614">
-        <v>-0.8004527710246864</v>
+        <v>-0.5527972645663481</v>
       </c>
       <c r="G614">
         <v>-0.7843338787062022</v>
@@ -20078,7 +20078,7 @@
         <v>0.09254748243314743</v>
       </c>
       <c r="F615">
-        <v>0.09254748243314743</v>
+        <v>-0.4310986852770176</v>
       </c>
       <c r="G615">
         <v>2.024285097316285</v>
@@ -20110,7 +20110,7 @@
         <v>-0.07996829991674885</v>
       </c>
       <c r="F616">
-        <v>-0.07996829991674885</v>
+        <v>-0.3840964128044528</v>
       </c>
       <c r="G616">
         <v>1.011251868679323</v>
@@ -20142,7 +20142,7 @@
         <v>-0.9259153985558514</v>
       </c>
       <c r="F617">
-        <v>-0.9259153985558514</v>
+        <v>0.8072924720575998</v>
       </c>
       <c r="G617">
         <v>0.5931943233558886</v>
@@ -20174,7 +20174,7 @@
         <v>-0.9615154678219465</v>
       </c>
       <c r="F618">
-        <v>-0.9615154678219465</v>
+        <v>0.4928665010964928</v>
       </c>
       <c r="G618">
         <v>1.2396153029849</v>
@@ -20206,7 +20206,7 @@
         <v>-0.9423439271842117</v>
       </c>
       <c r="F619">
-        <v>-0.9423439271842117</v>
+        <v>-0.9419515741233464</v>
       </c>
       <c r="G619">
         <v>-1.144097631423374</v>
@@ -20238,7 +20238,7 @@
         <v>0.5443515463721611</v>
       </c>
       <c r="F620">
-        <v>0.5443515463721611</v>
+        <v>0.1117547028696187</v>
       </c>
       <c r="G620">
         <v>0.09865018478488782</v>
@@ -20270,7 +20270,7 @@
         <v>-0.9190936241408207</v>
       </c>
       <c r="F621">
-        <v>-0.9190936241408207</v>
+        <v>-1.134483856577351</v>
       </c>
       <c r="G621">
         <v>-1.293629759607629</v>
@@ -20302,7 +20302,7 @@
         <v>0.9363436623460114</v>
       </c>
       <c r="F622">
-        <v>0.9363436623460114</v>
+        <v>0.4107378828642911</v>
       </c>
       <c r="G622">
         <v>0.00645163686874749</v>
@@ -20334,7 +20334,7 @@
         <v>0.6888816240094705</v>
       </c>
       <c r="F623">
-        <v>0.6888816240094705</v>
+        <v>1.062394731573818</v>
       </c>
       <c r="G623">
         <v>0.9807710003708765</v>
@@ -20366,7 +20366,7 @@
         <v>-0.586646757262866</v>
       </c>
       <c r="F624">
-        <v>-0.586646757262866</v>
+        <v>-0.5194549744975325</v>
       </c>
       <c r="G624">
         <v>-0.9646852724424185</v>
@@ -20398,7 +20398,7 @@
         <v>1.281966288671061</v>
       </c>
       <c r="F625">
-        <v>1.281966288671061</v>
+        <v>0.3729445581355845</v>
       </c>
       <c r="G625">
         <v>-0.1166065672937929</v>
@@ -20430,7 +20430,7 @@
         <v>-0.6801701910918243</v>
       </c>
       <c r="F626">
-        <v>-0.6801701910918243</v>
+        <v>-0.9704526241655718</v>
       </c>
       <c r="G626">
         <v>-0.6247456804434677</v>
@@ -20462,7 +20462,7 @@
         <v>-0.9138527469932629</v>
       </c>
       <c r="F627">
-        <v>-0.9138527469932629</v>
+        <v>0.1208832278381468</v>
       </c>
       <c r="G627">
         <v>-1.209231378095729</v>
@@ -20494,7 +20494,7 @@
         <v>-0.4437639528983212</v>
       </c>
       <c r="F628">
-        <v>-0.4437639528983212</v>
+        <v>-0.7845858163698624</v>
       </c>
       <c r="G628">
         <v>-0.4393227531959421</v>
@@ -20526,7 +20526,7 @@
         <v>-0.424029692619921</v>
       </c>
       <c r="F629">
-        <v>-0.424029692619921</v>
+        <v>-0.8769085448950029</v>
       </c>
       <c r="G629">
         <v>-0.7526366015660788</v>
@@ -20558,7 +20558,7 @@
         <v>-0.9037287512550428</v>
       </c>
       <c r="F630">
-        <v>-0.9037287512550428</v>
+        <v>-0.656763651675106</v>
       </c>
       <c r="G630">
         <v>-1.047884163104255</v>
@@ -20590,7 +20590,7 @@
         <v>0.2904470709655647</v>
       </c>
       <c r="F631">
-        <v>0.2904470709655647</v>
+        <v>-0.3694470513471752</v>
       </c>
       <c r="G631">
         <v>2.638413293447018</v>
@@ -20622,7 +20622,7 @@
         <v>1.043756313998319</v>
       </c>
       <c r="F632">
-        <v>1.043756313998319</v>
+        <v>-0.08307685665274769</v>
       </c>
       <c r="G632">
         <v>1.551720691147972</v>
@@ -20654,7 +20654,7 @@
         <v>-0.8551772617681876</v>
       </c>
       <c r="F633">
-        <v>-0.8551772617681876</v>
+        <v>0.06981194033501453</v>
       </c>
       <c r="G633">
         <v>-0.9284454837601586</v>
@@ -20686,7 +20686,7 @@
         <v>-0.8753339240898113</v>
       </c>
       <c r="F634">
-        <v>-0.8753339240898113</v>
+        <v>0.233673980396534</v>
       </c>
       <c r="G634">
         <v>-0.7821308313279691</v>
@@ -20718,7 +20718,7 @@
         <v>-0.6891579455481396</v>
       </c>
       <c r="F635">
-        <v>-0.6891579455481396</v>
+        <v>-0.1926212109225195</v>
       </c>
       <c r="G635">
         <v>-0.9307904260119791</v>
@@ -20750,7 +20750,7 @@
         <v>-0.7796819951603301</v>
       </c>
       <c r="F636">
-        <v>-0.7796819951603301</v>
+        <v>0.5869007076734162</v>
       </c>
       <c r="G636">
         <v>-0.618444264416049</v>
@@ -20782,7 +20782,7 @@
         <v>0.1133599429172507</v>
       </c>
       <c r="F637">
-        <v>0.1133599429172507</v>
+        <v>-0.8964873652597984</v>
       </c>
       <c r="G637">
         <v>0.8783306455116477</v>
@@ -20814,7 +20814,7 @@
         <v>0.4045765574411113</v>
       </c>
       <c r="F638">
-        <v>0.4045765574411113</v>
+        <v>-0.5720918914947823</v>
       </c>
       <c r="G638">
         <v>-0.4166196741121643</v>
@@ -20846,7 +20846,7 @@
         <v>0.2897317347819807</v>
       </c>
       <c r="F639">
-        <v>0.2897317347819807</v>
+        <v>-0.3541125705347081</v>
       </c>
       <c r="G639">
         <v>-0.4421467093724601</v>
@@ -20878,7 +20878,7 @@
         <v>-0.8295542788303392</v>
       </c>
       <c r="F640">
-        <v>-0.8295542788303392</v>
+        <v>-0.9692702953177756</v>
       </c>
       <c r="G640">
         <v>-0.2689444456139195</v>
@@ -20910,7 +20910,7 @@
         <v>-0.8413460163899508</v>
       </c>
       <c r="F641">
-        <v>-0.8413460163899508</v>
+        <v>-0.8482566311491643</v>
       </c>
       <c r="G641">
         <v>-0.09288690098380099</v>
@@ -20942,7 +20942,7 @@
         <v>0.3335525948644429</v>
       </c>
       <c r="F642">
-        <v>0.3335525948644429</v>
+        <v>-0.41383244106049</v>
       </c>
       <c r="G642">
         <v>-0.5916610898505489</v>
@@ -20974,7 +20974,7 @@
         <v>-0.805501146526131</v>
       </c>
       <c r="F643">
-        <v>-0.805501146526131</v>
+        <v>-0.868340771485434</v>
       </c>
       <c r="G643">
         <v>-0.9553297988731102</v>
@@ -21006,7 +21006,7 @@
         <v>-0.1113776035697182</v>
       </c>
       <c r="F644">
-        <v>-0.1113776035697182</v>
+        <v>-0.3365899835775664</v>
       </c>
       <c r="G644">
         <v>-0.1831779123193702</v>
@@ -21038,7 +21038,7 @@
         <v>-0.7966465811572558</v>
       </c>
       <c r="F645">
-        <v>-0.7966465811572558</v>
+        <v>-1.105618594240811</v>
       </c>
       <c r="G645">
         <v>-1.137021341293697</v>
@@ -21070,7 +21070,7 @@
         <v>-0.04851974343575164</v>
       </c>
       <c r="F646">
-        <v>-0.04851974343575164</v>
+        <v>-0.2138782227257249</v>
       </c>
       <c r="G646">
         <v>-0.5856390913039224</v>
